--- a/Rocket Specs.xlsx
+++ b/Rocket Specs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pap\Google Drive\Rocket Reference\Git\rr-tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E19CB71-F095-43BD-B033-897268B4042A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E783AC-1DDB-4F09-B836-E4F679CC5ECD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{FE57B926-6979-4B19-9728-9D2B46A5BF0C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FE57B926-6979-4B19-9728-9D2B46A5BF0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Launch Vehicles" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
     <author>Pap</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{3EFEA1D7-B587-49E5-9D72-0A88DDE80BFD}">
+    <comment ref="H51" authorId="0" shapeId="0" xr:uid="{3EFEA1D7-B587-49E5-9D72-0A88DDE80BFD}">
       <text>
         <r>
           <rPr>
@@ -159,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="295">
   <si>
     <t>LV</t>
   </si>
@@ -254,9 +255,6 @@
     <t>S-IB, S-IVB</t>
   </si>
   <si>
-    <t>SA-201-SA-203 R&amp;D Flgihts, SA-206-SA-209 Skylab</t>
-  </si>
-  <si>
     <t>Engine</t>
   </si>
   <si>
@@ -474,6 +472,579 @@
   </si>
   <si>
     <t>ST1</t>
+  </si>
+  <si>
+    <t>First Launch</t>
+  </si>
+  <si>
+    <t>SA-201 to SA-203 R&amp;D Flgihts, SA-206 to SA-209 Skylab</t>
+  </si>
+  <si>
+    <t>Vanguard</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>Saturn</t>
+  </si>
+  <si>
+    <t>Juno I</t>
+  </si>
+  <si>
+    <t>Juno</t>
+  </si>
+  <si>
+    <t>Thor-Able I</t>
+  </si>
+  <si>
+    <t>Thor / Delta</t>
+  </si>
+  <si>
+    <t>Juno II</t>
+  </si>
+  <si>
+    <t>Atlas B</t>
+  </si>
+  <si>
+    <t>Atlas</t>
+  </si>
+  <si>
+    <t>Thor Agena A</t>
+  </si>
+  <si>
+    <t>Titan I</t>
+  </si>
+  <si>
+    <t>Titan</t>
+  </si>
+  <si>
+    <t>Thor-Able II</t>
+  </si>
+  <si>
+    <t>Atlas D Able II</t>
+  </si>
+  <si>
+    <t>LV-3 Agena A</t>
+  </si>
+  <si>
+    <t>Thor-Able Star</t>
+  </si>
+  <si>
+    <t>Thor-Delta</t>
+  </si>
+  <si>
+    <t>Atlas D/Mercury</t>
+  </si>
+  <si>
+    <t>Redstone-Mercury</t>
+  </si>
+  <si>
+    <t>Redstone</t>
+  </si>
+  <si>
+    <t>Scout X-1</t>
+  </si>
+  <si>
+    <t>Scout</t>
+  </si>
+  <si>
+    <t>Thor Agena B.2</t>
+  </si>
+  <si>
+    <t>Titan III</t>
+  </si>
+  <si>
+    <t>Scout X-2</t>
+  </si>
+  <si>
+    <t>Scout X-2M</t>
+  </si>
+  <si>
+    <t>Thor Agena D</t>
+  </si>
+  <si>
+    <t>Delta A</t>
+  </si>
+  <si>
+    <t>Delta C</t>
+  </si>
+  <si>
+    <t>Delta B</t>
+  </si>
+  <si>
+    <t>Scout X-3</t>
+  </si>
+  <si>
+    <t>Scout X-3M</t>
+  </si>
+  <si>
+    <t>TAT Agena D</t>
+  </si>
+  <si>
+    <t>Scout X-4</t>
+  </si>
+  <si>
+    <t>Scout X-2B</t>
+  </si>
+  <si>
+    <t>Atlas F/OV</t>
+  </si>
+  <si>
+    <t>Titan 2 GLV</t>
+  </si>
+  <si>
+    <t>Delta D</t>
+  </si>
+  <si>
+    <t>Titan 3A</t>
+  </si>
+  <si>
+    <t>Atlas D/OV</t>
+  </si>
+  <si>
+    <t>Thor Burner I</t>
+  </si>
+  <si>
+    <t>Titan 3C</t>
+  </si>
+  <si>
+    <t>Scout B</t>
+  </si>
+  <si>
+    <t>Delta E</t>
+  </si>
+  <si>
+    <t>Scout A</t>
+  </si>
+  <si>
+    <t>Delta C1</t>
+  </si>
+  <si>
+    <t>Delta E1</t>
+  </si>
+  <si>
+    <t>Titan 3B</t>
+  </si>
+  <si>
+    <t>Thorad Agena</t>
+  </si>
+  <si>
+    <t>Thor Burner II</t>
+  </si>
+  <si>
+    <t>Delta G</t>
+  </si>
+  <si>
+    <t>Delta J</t>
+  </si>
+  <si>
+    <t>Delta M</t>
+  </si>
+  <si>
+    <t>Delta N</t>
+  </si>
+  <si>
+    <t>Delta L</t>
+  </si>
+  <si>
+    <t>Delta N6</t>
+  </si>
+  <si>
+    <t>Titan 3C+</t>
+  </si>
+  <si>
+    <t>Titan 3B+ (23B)</t>
+  </si>
+  <si>
+    <t>Delta M6</t>
+  </si>
+  <si>
+    <t>Titan 3B mod (33B)</t>
+  </si>
+  <si>
+    <t>Titan 3D</t>
+  </si>
+  <si>
+    <t>Titan 3BS (24B)</t>
+  </si>
+  <si>
+    <t>Scout B-1</t>
+  </si>
+  <si>
+    <t>Thor Burner IIA</t>
+  </si>
+  <si>
+    <t>Delta 0900</t>
+  </si>
+  <si>
+    <t>Scout D-1</t>
+  </si>
+  <si>
+    <t>Delta 1604</t>
+  </si>
+  <si>
+    <t>Atlas - Burner II</t>
+  </si>
+  <si>
+    <t>Delta 1914</t>
+  </si>
+  <si>
+    <t>SLV-3D Centaur</t>
+  </si>
+  <si>
+    <t>Delta 1913</t>
+  </si>
+  <si>
+    <t>Scout A-1</t>
+  </si>
+  <si>
+    <t>Delta 1900</t>
+  </si>
+  <si>
+    <t>Delta 2304</t>
+  </si>
+  <si>
+    <t>Titan 3E</t>
+  </si>
+  <si>
+    <t>Delta 2914</t>
+  </si>
+  <si>
+    <t>Scout E-1</t>
+  </si>
+  <si>
+    <t>Atlas - PTS</t>
+  </si>
+  <si>
+    <t>Delta 2310</t>
+  </si>
+  <si>
+    <t>Delta 2313</t>
+  </si>
+  <si>
+    <t>Delta 2910</t>
+  </si>
+  <si>
+    <t>Titan 3BS mod (34B)</t>
+  </si>
+  <si>
+    <t>Scout F-1</t>
+  </si>
+  <si>
+    <t>Delta 2913</t>
+  </si>
+  <si>
+    <t>Delta 3914</t>
+  </si>
+  <si>
+    <t>Thor-ISS</t>
+  </si>
+  <si>
+    <t>Atlas - SGS-1</t>
+  </si>
+  <si>
+    <t>Atlas - Agena</t>
+  </si>
+  <si>
+    <t>Atlas - OIS</t>
+  </si>
+  <si>
+    <t>Scout G-1</t>
+  </si>
+  <si>
+    <t>Delta 3910</t>
+  </si>
+  <si>
+    <t>Delta 3915</t>
+  </si>
+  <si>
+    <t>Space Shuttle (SSME Baseline)</t>
+  </si>
+  <si>
+    <t>Space Shuttle</t>
+  </si>
+  <si>
+    <t>Delta 3913</t>
+  </si>
+  <si>
+    <t>Delta 3920</t>
+  </si>
+  <si>
+    <t>Delta 3925</t>
+  </si>
+  <si>
+    <t>Delta 3924</t>
+  </si>
+  <si>
+    <t>Titan 34D</t>
+  </si>
+  <si>
+    <t>Atlas - MSD</t>
+  </si>
+  <si>
+    <t>Space Shuttle (SSME Phase-1)</t>
+  </si>
+  <si>
+    <t>Atlas - SGS-2</t>
+  </si>
+  <si>
+    <t>Atlas-G Centaur</t>
+  </si>
+  <si>
+    <t>Atlas V</t>
+  </si>
+  <si>
+    <t>Space Shuttle (SSME Phase-2)</t>
+  </si>
+  <si>
+    <t>Delta 6925</t>
+  </si>
+  <si>
+    <t>Titan IVA (IUS)</t>
+  </si>
+  <si>
+    <t>Delta 4925</t>
+  </si>
+  <si>
+    <t>Delta 5920</t>
+  </si>
+  <si>
+    <t>Delta 6920</t>
+  </si>
+  <si>
+    <t>Atlas - Burner I</t>
+  </si>
+  <si>
+    <t>Titan IVA (34D7)</t>
+  </si>
+  <si>
+    <t>Atlas I</t>
+  </si>
+  <si>
+    <t>Delta 7925</t>
+  </si>
+  <si>
+    <t>Atlas II</t>
+  </si>
+  <si>
+    <t>Atlas IIA</t>
+  </si>
+  <si>
+    <t>Atlas IIAS</t>
+  </si>
+  <si>
+    <t>Space Shuttle (SSME Block-I)</t>
+  </si>
+  <si>
+    <t>Delta 7920</t>
+  </si>
+  <si>
+    <t>Space Shuttle (SSME Block-IA)</t>
+  </si>
+  <si>
+    <t>Titan IVB (IUS)</t>
+  </si>
+  <si>
+    <t>Athena I (LMLV-1)</t>
+  </si>
+  <si>
+    <t>Athena</t>
+  </si>
+  <si>
+    <t>Titan IVB (Centaur)</t>
+  </si>
+  <si>
+    <t>Athena II</t>
+  </si>
+  <si>
+    <t>Space Shuttle (SSME Block-IIA)</t>
+  </si>
+  <si>
+    <t>Delta 7420</t>
+  </si>
+  <si>
+    <t>Delta 7326</t>
+  </si>
+  <si>
+    <t>Delta 7425</t>
+  </si>
+  <si>
+    <t>Delta 7426</t>
+  </si>
+  <si>
+    <t>Titan IVB</t>
+  </si>
+  <si>
+    <t>Delta 7320</t>
+  </si>
+  <si>
+    <t>Minotaur-I</t>
+  </si>
+  <si>
+    <t>Minotaur</t>
+  </si>
+  <si>
+    <t>Atlas IIIA</t>
+  </si>
+  <si>
+    <t>Atlas IIIB</t>
+  </si>
+  <si>
+    <t>Space Shuttle (SSME Block-II)</t>
+  </si>
+  <si>
+    <t>Atlas V (401)</t>
+  </si>
+  <si>
+    <t>Delta IV-M+ (4,2)</t>
+  </si>
+  <si>
+    <t>Delta IV</t>
+  </si>
+  <si>
+    <t>Delta IV-M</t>
+  </si>
+  <si>
+    <t>Delta 7925-H</t>
+  </si>
+  <si>
+    <t>Atlas V (521)</t>
+  </si>
+  <si>
+    <t>Delta IV-HLV</t>
+  </si>
+  <si>
+    <t>Atlas V (431)</t>
+  </si>
+  <si>
+    <t>Atlas V (551)</t>
+  </si>
+  <si>
+    <t>Atlas V (411)</t>
+  </si>
+  <si>
+    <t>Atlas V (421)</t>
+  </si>
+  <si>
+    <t>Delta IV-M+ (5,4)</t>
+  </si>
+  <si>
+    <t>Atlas V (501)</t>
+  </si>
+  <si>
+    <t>Falcon-9 (B1)</t>
+  </si>
+  <si>
+    <t>Falcon</t>
+  </si>
+  <si>
+    <t>Atlas V (531)</t>
+  </si>
+  <si>
+    <t>Minotaur-IV</t>
+  </si>
+  <si>
+    <t>Minotaur-IV+</t>
+  </si>
+  <si>
+    <t>Atlas V (541)</t>
+  </si>
+  <si>
+    <t>Delta IV-M+ (5,2)</t>
+  </si>
+  <si>
+    <t>Antares 110</t>
+  </si>
+  <si>
+    <t>Antares</t>
+  </si>
+  <si>
+    <t>Minotaur-V</t>
+  </si>
+  <si>
+    <t>Falcon-9 (v1.1)</t>
+  </si>
+  <si>
+    <t>Antares  120</t>
+  </si>
+  <si>
+    <t>Antares  130</t>
+  </si>
+  <si>
+    <t>Falcon-9 (v1.2)</t>
+  </si>
+  <si>
+    <t>Saturn (Family)</t>
+  </si>
+  <si>
+    <t>Thor-Delta (Family)</t>
+  </si>
+  <si>
+    <t>Atlas (Family)</t>
+  </si>
+  <si>
+    <t>Scout (Family)</t>
+  </si>
+  <si>
+    <t>Titan (Family)</t>
+  </si>
+  <si>
+    <t>Falcon (Family)</t>
+  </si>
+  <si>
+    <t>Space</t>
+  </si>
+  <si>
+    <t>Orbital Flights</t>
+  </si>
+  <si>
+    <t>Last Launch</t>
+  </si>
+  <si>
+    <t>4 (SO)</t>
+  </si>
+  <si>
+    <t>7, 2 (SO)</t>
+  </si>
+  <si>
+    <t>Atlas LV-3 Agena B.1</t>
+  </si>
+  <si>
+    <t>Atlas LV-3C Centaur</t>
+  </si>
+  <si>
+    <t>Atlas LV-3 Agena B.2</t>
+  </si>
+  <si>
+    <t>Atlas SLV-3 Agena D</t>
+  </si>
+  <si>
+    <t>Atlas SLV-3C Centaur</t>
+  </si>
+  <si>
+    <t>Atlas SLV-3A Agena D</t>
+  </si>
+  <si>
+    <t>Atlas SLV-3D Centaur</t>
+  </si>
+  <si>
+    <t>Atlas E/F Star 37S-ISS</t>
+  </si>
+  <si>
+    <t>Space Shuttle (Family)</t>
+  </si>
+  <si>
+    <t>Atlas V (Family)</t>
+  </si>
+  <si>
+    <t>Delta IV (Family)</t>
+  </si>
+  <si>
+    <t>Agency</t>
+  </si>
+  <si>
+    <t>NASA</t>
   </si>
 </sst>
 </file>
@@ -496,12 +1067,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -516,16 +1093,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -560,6 +1154,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{73815901-8414-40EF-AB3D-E7F9387784D7}" name="Table2" displayName="Table2" ref="A1:M180" totalsRowShown="0">
+  <autoFilter ref="A1:M180" xr:uid="{CF3B8BC2-A280-4EF8-89D5-B331496FC368}">
+    <filterColumn colId="0">
+      <colorFilter dxfId="0"/>
+    </filterColumn>
+  </autoFilter>
+  <sortState ref="A2:M180">
+    <sortCondition ref="E1:E180"/>
+  </sortState>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{46D91DB2-A452-47C4-A419-17B56A70CCB8}" name="LV"/>
+    <tableColumn id="2" xr3:uid="{056E6DBC-4D6F-4D6B-A6DA-1269FA5475B8}" name="Country"/>
+    <tableColumn id="3" xr3:uid="{3D3AA713-A01C-4925-9AC1-1D8C77486821}" name="Family"/>
+    <tableColumn id="13" xr3:uid="{38D52EBA-B6F3-4FF5-ADEC-27FBB6C49F68}" name="Agency"/>
+    <tableColumn id="4" xr3:uid="{4F0C3C58-5A3C-4D5E-9CE0-A635F5DA6276}" name="First Launch" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{85B26A7B-4F5A-4920-BC13-48B3DF190C06}" name="Last Launch" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{C84BAB22-5B2E-418A-81C0-52771A64B02F}" name="Orbital Flights"/>
+    <tableColumn id="7" xr3:uid="{FA61331B-B689-4EE6-B1E0-8D9F52731B0D}" name="Height"/>
+    <tableColumn id="8" xr3:uid="{9E051F27-5810-4DF6-B38B-7F34C29A30DE}" name="Dry Mass"/>
+    <tableColumn id="9" xr3:uid="{D291F012-4027-4431-9960-BC528597F433}" name="Liftoff Mass"/>
+    <tableColumn id="10" xr3:uid="{2C6A67EB-739A-403A-B7E3-40384F234A72}" name="Stages"/>
+    <tableColumn id="11" xr3:uid="{020B3A87-58B8-455D-B2BA-936D5B2CAD98}" name="Source"/>
+    <tableColumn id="12" xr3:uid="{5D5BBEA9-6092-40AA-91DC-2C14899A49BD}" name="Launches"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E8E7155B-DD50-49EF-9783-96A6FF6E0B10}" name="Table1" displayName="Table1" ref="A1:X11" totalsRowShown="0">
   <autoFilter ref="A1:X11" xr:uid="{C9100D55-8A70-4C51-BFF2-B7467913C5C8}"/>
   <sortState ref="A2:W11">
@@ -897,15 +1520,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AED7E730-D19C-44A8-86E2-3EA4822F6F6D}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:M180"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection sqref="A1:D180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" customWidth="1"/>
+    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="49.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -913,136 +1551,4195 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="G1" t="s">
+        <v>278</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E2" s="2">
+        <v>21160</v>
+      </c>
+      <c r="F2" s="2">
+        <v>21811</v>
+      </c>
+      <c r="G2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" t="s">
+        <v>294</v>
+      </c>
+      <c r="E3" s="2">
+        <v>21217</v>
+      </c>
+      <c r="F3" s="2">
+        <v>21480</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" t="s">
+        <v>294</v>
+      </c>
+      <c r="E4" s="2">
+        <v>21414</v>
+      </c>
+      <c r="F4" s="2">
+        <v>39352</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" t="s">
+        <v>294</v>
+      </c>
+      <c r="E5" s="2">
+        <v>21414</v>
+      </c>
+      <c r="F5" s="2">
+        <v>21497</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" t="s">
+        <v>294</v>
+      </c>
+      <c r="E6" s="2">
+        <v>21525</v>
+      </c>
+      <c r="F6" s="2">
+        <v>22425</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" t="s">
+        <v>294</v>
+      </c>
+      <c r="E7" s="2">
+        <v>21537</v>
+      </c>
+      <c r="F7" s="2">
+        <v>38386</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" t="s">
+        <v>294</v>
+      </c>
+      <c r="E8" s="2">
+        <v>21537</v>
+      </c>
+      <c r="F8" s="2">
+        <v>21537</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" t="s">
+        <v>294</v>
+      </c>
+      <c r="E9" s="2">
+        <v>21571</v>
+      </c>
+      <c r="F9" s="2">
+        <v>22172</v>
+      </c>
+      <c r="G9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" t="s">
+        <v>294</v>
+      </c>
+      <c r="E10" s="2">
+        <v>21587</v>
+      </c>
+      <c r="F10" s="2">
+        <v>23806</v>
+      </c>
+      <c r="G10">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" t="s">
+        <v>294</v>
+      </c>
+      <c r="E11" s="2">
+        <v>21587</v>
+      </c>
+      <c r="F11" s="2">
+        <v>38644</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" t="s">
+        <v>294</v>
+      </c>
+      <c r="E12" s="2">
+        <v>21769</v>
+      </c>
+      <c r="F12" s="2">
+        <v>22007</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" t="s">
+        <v>294</v>
+      </c>
+      <c r="E13" s="2">
+        <v>21817</v>
+      </c>
+      <c r="F13" s="2">
+        <v>22265</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" t="s">
+        <v>294</v>
+      </c>
+      <c r="E14" s="2">
+        <v>21972</v>
+      </c>
+      <c r="F14" s="2">
+        <v>22312</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" t="s">
+        <v>294</v>
+      </c>
+      <c r="E15" s="2">
+        <v>22019</v>
+      </c>
+      <c r="F15" s="2">
+        <v>23967</v>
+      </c>
+      <c r="G15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" t="s">
+        <v>294</v>
+      </c>
+      <c r="E16" s="2">
+        <v>22049</v>
+      </c>
+      <c r="F16" s="2">
+        <v>22907</v>
+      </c>
+      <c r="G16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>115</v>
+      </c>
+      <c r="D17" t="s">
+        <v>294</v>
+      </c>
+      <c r="E17" s="2">
+        <v>22126</v>
+      </c>
+      <c r="F17" s="2">
+        <v>23146</v>
+      </c>
+      <c r="G17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>126</v>
+      </c>
+      <c r="D18" t="s">
+        <v>294</v>
+      </c>
+      <c r="E18" s="2">
+        <v>22241</v>
+      </c>
+      <c r="F18" s="2">
+        <v>22483</v>
+      </c>
+      <c r="G18">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" t="s">
+        <v>294</v>
+      </c>
+      <c r="E19" s="2">
+        <v>22254</v>
+      </c>
+      <c r="F19" s="2">
+        <v>22518</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>128</v>
+      </c>
+      <c r="D20" t="s">
+        <v>294</v>
+      </c>
+      <c r="E20" s="2">
+        <v>22254</v>
+      </c>
+      <c r="F20" s="2">
+        <v>34463</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" t="s">
+        <v>294</v>
+      </c>
+      <c r="E21" s="2">
+        <v>22474</v>
+      </c>
+      <c r="F21" s="2">
+        <v>22759</v>
+      </c>
+      <c r="G21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" t="s">
+        <v>294</v>
+      </c>
+      <c r="E22" s="2">
+        <v>22581</v>
+      </c>
+      <c r="F22" s="2">
+        <v>27590</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" t="s">
+        <v>294</v>
+      </c>
+      <c r="E23" s="2">
+        <v>22581</v>
+      </c>
+      <c r="F23" s="2">
+        <v>23098</v>
+      </c>
+      <c r="G23" t="s">
+        <v>280</v>
+      </c>
+      <c r="K23" t="s">
+        <v>27</v>
+      </c>
+      <c r="L23" t="s">
+        <v>21</v>
+      </c>
+      <c r="M23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" t="s">
+        <v>294</v>
+      </c>
+      <c r="E24" s="2">
+        <v>22698</v>
+      </c>
+      <c r="F24" s="2">
+        <v>24075</v>
+      </c>
+      <c r="G24">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" t="s">
+        <v>294</v>
+      </c>
+      <c r="E25" s="2">
+        <v>22721</v>
+      </c>
+      <c r="F25" s="2">
+        <v>27939</v>
+      </c>
+      <c r="G25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>131</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>128</v>
+      </c>
+      <c r="D26" t="s">
+        <v>294</v>
+      </c>
+      <c r="E26" s="2">
+        <v>22762</v>
+      </c>
+      <c r="F26" s="2">
+        <v>22762</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" t="s">
+        <v>294</v>
+      </c>
+      <c r="E27" s="2">
+        <v>22774</v>
+      </c>
+      <c r="F27" s="2">
+        <v>24667</v>
+      </c>
+      <c r="G27">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>132</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>128</v>
+      </c>
+      <c r="D28" t="s">
+        <v>294</v>
+      </c>
+      <c r="E28" s="2">
+        <v>22790</v>
+      </c>
+      <c r="F28" s="2">
+        <v>23127</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>112</v>
+      </c>
+      <c r="D29" t="s">
+        <v>294</v>
+      </c>
+      <c r="E29" s="2">
+        <v>22825</v>
+      </c>
+      <c r="F29" s="2">
+        <v>24623</v>
+      </c>
+      <c r="G29">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>134</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>112</v>
+      </c>
+      <c r="D30" t="s">
+        <v>294</v>
+      </c>
+      <c r="E30" s="2">
+        <v>22921</v>
+      </c>
+      <c r="F30" s="2">
+        <v>22946</v>
+      </c>
+      <c r="G30">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>115</v>
+      </c>
+      <c r="D31" t="s">
+        <v>294</v>
+      </c>
+      <c r="E31" s="2">
+        <v>22937</v>
+      </c>
+      <c r="F31" s="2">
+        <v>23822</v>
+      </c>
+      <c r="G31">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" t="s">
+        <v>294</v>
+      </c>
+      <c r="E32" s="2">
+        <v>22977</v>
+      </c>
+      <c r="F32" s="2">
+        <v>24539</v>
+      </c>
+      <c r="G32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>136</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>112</v>
+      </c>
+      <c r="D33" t="s">
+        <v>294</v>
+      </c>
+      <c r="E33" s="2">
+        <v>22993</v>
+      </c>
+      <c r="F33" s="2">
+        <v>23455</v>
+      </c>
+      <c r="G33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>137</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>128</v>
+      </c>
+      <c r="D34" t="s">
+        <v>294</v>
+      </c>
+      <c r="E34" s="2">
+        <v>22996</v>
+      </c>
+      <c r="F34" s="2">
+        <v>23463</v>
+      </c>
+      <c r="G34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>138</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>128</v>
+      </c>
+      <c r="D35" t="s">
+        <v>294</v>
+      </c>
+      <c r="E35" s="2">
+        <v>23061</v>
+      </c>
+      <c r="F35" s="2">
+        <v>23061</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" t="s">
+        <v>294</v>
+      </c>
+      <c r="E36" s="2">
+        <v>23070</v>
+      </c>
+      <c r="F36" s="2">
+        <v>24854</v>
+      </c>
+      <c r="G36">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>140</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>128</v>
+      </c>
+      <c r="D37" t="s">
+        <v>294</v>
+      </c>
+      <c r="E37" s="2">
+        <v>23190</v>
+      </c>
+      <c r="F37" s="2">
+        <v>24082</v>
+      </c>
+      <c r="G37">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>141</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>128</v>
+      </c>
+      <c r="D38" t="s">
+        <v>294</v>
+      </c>
+      <c r="E38" s="2">
+        <v>23281</v>
+      </c>
+      <c r="F38" s="2">
+        <v>23281</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" t="s">
+        <v>294</v>
+      </c>
+      <c r="E39" s="2">
+        <v>23301</v>
+      </c>
+      <c r="F39" s="2">
+        <v>24781</v>
+      </c>
+      <c r="G39">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>108</v>
+      </c>
+      <c r="D40" t="s">
+        <v>294</v>
+      </c>
+      <c r="E40" s="2">
+        <v>23405</v>
+      </c>
+      <c r="F40" s="2">
+        <v>23953</v>
+      </c>
+      <c r="G40">
+        <v>6</v>
+      </c>
+      <c r="K40" t="s">
+        <v>28</v>
+      </c>
+      <c r="L40" t="s">
+        <v>21</v>
+      </c>
+      <c r="M40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>142</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>115</v>
+      </c>
+      <c r="D41" t="s">
+        <v>294</v>
+      </c>
+      <c r="E41" s="2">
+        <v>23473</v>
+      </c>
+      <c r="F41" s="2">
+        <v>26152</v>
+      </c>
+      <c r="G41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>118</v>
+      </c>
+      <c r="D42" t="s">
+        <v>294</v>
+      </c>
+      <c r="E42" s="2">
+        <v>23475</v>
+      </c>
+      <c r="F42" s="2">
+        <v>24422</v>
+      </c>
+      <c r="G42">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>144</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>112</v>
+      </c>
+      <c r="D43" t="s">
+        <v>294</v>
+      </c>
+      <c r="E43" s="2">
+        <v>23608</v>
+      </c>
+      <c r="F43" s="2">
+        <v>23838</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>145</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>118</v>
+      </c>
+      <c r="D44" t="s">
+        <v>294</v>
+      </c>
+      <c r="E44" s="2">
+        <v>23621</v>
+      </c>
+      <c r="F44" s="2">
+        <v>23868</v>
+      </c>
+      <c r="G44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>146</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>115</v>
+      </c>
+      <c r="D45" t="s">
+        <v>294</v>
+      </c>
+      <c r="E45" s="2">
+        <v>23763</v>
+      </c>
+      <c r="F45" s="2">
+        <v>24680</v>
+      </c>
+      <c r="G45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>147</v>
+      </c>
+      <c r="B46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
+        <v>112</v>
+      </c>
+      <c r="D46" t="s">
+        <v>294</v>
+      </c>
+      <c r="E46" s="2">
+        <v>23882</v>
+      </c>
+      <c r="F46" s="2">
+        <v>24197</v>
+      </c>
+      <c r="G46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>118</v>
+      </c>
+      <c r="D47" t="s">
+        <v>294</v>
+      </c>
+      <c r="E47" s="2">
+        <v>23911</v>
+      </c>
+      <c r="F47" s="2">
+        <v>25666</v>
+      </c>
+      <c r="G47">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
+        <v>128</v>
+      </c>
+      <c r="D48" t="s">
+        <v>294</v>
+      </c>
+      <c r="E48" s="2">
+        <v>23964</v>
+      </c>
+      <c r="F48" s="2">
+        <v>26252</v>
+      </c>
+      <c r="G48">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>150</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" t="s">
+        <v>112</v>
+      </c>
+      <c r="D49" t="s">
+        <v>294</v>
+      </c>
+      <c r="E49" s="2">
+        <v>24052</v>
+      </c>
+      <c r="F49" s="2">
+        <v>24582</v>
+      </c>
+      <c r="G49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>151</v>
+      </c>
+      <c r="B50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
+        <v>128</v>
+      </c>
+      <c r="D50" t="s">
+        <v>294</v>
+      </c>
+      <c r="E50" s="2">
+        <v>24098</v>
+      </c>
+      <c r="F50" s="2">
+        <v>25807</v>
+      </c>
+      <c r="G50">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" t="s">
+        <v>108</v>
+      </c>
+      <c r="D51" t="s">
+        <v>294</v>
+      </c>
+      <c r="E51" s="2">
+        <v>24164</v>
+      </c>
+      <c r="F51" s="2">
+        <v>27590</v>
+      </c>
+      <c r="G51" t="s">
+        <v>281</v>
+      </c>
+      <c r="H51">
         <f>[1]!IN2M(2681.859)</f>
         <v>68.119218599999996</v>
       </c>
-      <c r="D2">
+      <c r="I51">
         <f>[1]!LB2KG(159000)</f>
         <v>72121.127999999997</v>
       </c>
-      <c r="E2">
+      <c r="J51">
         <f>[1]!LB2KG(1296000)</f>
         <v>587855.23199999996</v>
       </c>
-      <c r="F2" t="s">
+      <c r="K51" t="s">
         <v>30</v>
       </c>
-      <c r="G2" t="s">
+      <c r="L51" t="s">
         <v>21</v>
       </c>
-      <c r="H2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="M51" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>152</v>
+      </c>
+      <c r="B52" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" t="s">
+        <v>112</v>
+      </c>
+      <c r="D52" t="s">
+        <v>294</v>
+      </c>
+      <c r="E52" s="2">
+        <v>24252</v>
+      </c>
+      <c r="F52" s="2">
+        <v>25225</v>
+      </c>
+      <c r="G52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>112</v>
+      </c>
+      <c r="D53" t="s">
+        <v>294</v>
+      </c>
+      <c r="E53" s="2">
+        <v>24289</v>
+      </c>
+      <c r="F53" s="2">
+        <v>26024</v>
+      </c>
+      <c r="G53">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
+        <v>118</v>
+      </c>
+      <c r="D54" t="s">
+        <v>294</v>
+      </c>
+      <c r="E54" s="2">
+        <v>24317</v>
+      </c>
+      <c r="F54" s="2">
+        <v>25864</v>
+      </c>
+      <c r="G54">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" t="s">
+        <v>112</v>
+      </c>
+      <c r="D55" t="s">
+        <v>294</v>
+      </c>
+      <c r="E55" s="2">
+        <v>24328</v>
+      </c>
+      <c r="F55" s="2">
+        <v>26444</v>
+      </c>
+      <c r="G55">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B56" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" t="s">
+        <v>112</v>
+      </c>
+      <c r="D56" t="s">
+        <v>294</v>
+      </c>
+      <c r="E56" s="2">
+        <v>24366</v>
+      </c>
+      <c r="F56" s="2">
+        <v>26092</v>
+      </c>
+      <c r="G56">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>157</v>
+      </c>
+      <c r="B57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" t="s">
+        <v>112</v>
+      </c>
+      <c r="D57" t="s">
+        <v>294</v>
+      </c>
+      <c r="E57" s="2">
+        <v>24455</v>
+      </c>
+      <c r="F57" s="2">
+        <v>24722</v>
+      </c>
+      <c r="G57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B58" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" t="s">
+        <v>115</v>
+      </c>
+      <c r="D58" t="s">
+        <v>294</v>
+      </c>
+      <c r="E58" s="2">
+        <v>24723</v>
+      </c>
+      <c r="F58" s="2">
+        <v>26532</v>
+      </c>
+      <c r="G58">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
+        <v>108</v>
+      </c>
+      <c r="D59" t="s">
+        <v>294</v>
+      </c>
+      <c r="E59" s="2">
+        <v>24785</v>
+      </c>
+      <c r="F59" s="2">
+        <v>26640</v>
+      </c>
+      <c r="G59">
+        <v>12</v>
+      </c>
+      <c r="H59">
+        <f>[1]!FT2M(365)</f>
+        <v>111.25200000000001</v>
+      </c>
+      <c r="I59">
+        <f>[1]!LB2KG(553000)</f>
+        <v>250836.37599999999</v>
+      </c>
+      <c r="J59">
+        <f>[1]!LB2KG(6495000)</f>
+        <v>2946080.04</v>
+      </c>
+      <c r="L59" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B60" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" t="s">
+        <v>115</v>
+      </c>
+      <c r="D60" t="s">
+        <v>294</v>
+      </c>
+      <c r="E60" s="2">
+        <v>24901</v>
+      </c>
+      <c r="F60" s="2">
+        <v>28587</v>
+      </c>
+      <c r="G60">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>158</v>
+      </c>
+      <c r="B61" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" t="s">
+        <v>112</v>
+      </c>
+      <c r="D61" t="s">
+        <v>294</v>
+      </c>
+      <c r="E61" s="2">
+        <v>25023</v>
+      </c>
+      <c r="F61" s="2">
+        <v>25023</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" t="s">
+        <v>112</v>
+      </c>
+      <c r="D62" t="s">
+        <v>294</v>
+      </c>
+      <c r="E62" s="2">
+        <v>25099</v>
+      </c>
+      <c r="F62" s="2">
+        <v>25967</v>
+      </c>
+      <c r="G62">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>160</v>
+      </c>
+      <c r="B63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" t="s">
+        <v>112</v>
+      </c>
+      <c r="D63" t="s">
+        <v>294</v>
+      </c>
+      <c r="E63" s="2">
+        <v>25383</v>
+      </c>
+      <c r="F63" s="2">
+        <v>26370</v>
+      </c>
+      <c r="G63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>161</v>
+      </c>
+      <c r="B64" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" t="s">
+        <v>112</v>
+      </c>
+      <c r="D64" t="s">
+        <v>294</v>
+      </c>
+      <c r="E64" s="2">
+        <v>25442</v>
+      </c>
+      <c r="F64" s="2">
+        <v>26329</v>
+      </c>
+      <c r="G64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>162</v>
+      </c>
+      <c r="B65" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" t="s">
+        <v>112</v>
+      </c>
+      <c r="D65" t="s">
+        <v>294</v>
+      </c>
+      <c r="E65" s="2">
+        <v>25591</v>
+      </c>
+      <c r="F65" s="2">
+        <v>26227</v>
+      </c>
+      <c r="G65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B66" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" t="s">
+        <v>118</v>
+      </c>
+      <c r="D66" t="s">
+        <v>294</v>
+      </c>
+      <c r="E66" s="2">
+        <v>25878</v>
+      </c>
+      <c r="F66" s="2">
+        <v>30016</v>
+      </c>
+      <c r="G66">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>164</v>
+      </c>
+      <c r="B67" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" t="s">
+        <v>118</v>
+      </c>
+      <c r="D67" t="s">
+        <v>294</v>
+      </c>
+      <c r="E67" s="2">
+        <v>25954</v>
+      </c>
+      <c r="F67" s="2">
+        <v>26045</v>
+      </c>
+      <c r="G67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>165</v>
+      </c>
+      <c r="B68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" t="s">
+        <v>112</v>
+      </c>
+      <c r="D68" t="s">
+        <v>294</v>
+      </c>
+      <c r="E68" s="2">
+        <v>26005</v>
+      </c>
+      <c r="F68" s="2">
+        <v>26005</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>166</v>
+      </c>
+      <c r="B69" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" t="s">
+        <v>118</v>
+      </c>
+      <c r="D69" t="s">
+        <v>294</v>
+      </c>
+      <c r="E69" s="2">
+        <v>26013</v>
+      </c>
+      <c r="F69" s="2">
+        <v>26897</v>
+      </c>
+      <c r="G69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B70" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" t="s">
+        <v>118</v>
+      </c>
+      <c r="D70" t="s">
+        <v>294</v>
+      </c>
+      <c r="E70" s="2">
+        <v>26099</v>
+      </c>
+      <c r="F70" s="2">
+        <v>30272</v>
+      </c>
+      <c r="G70">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B71" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" t="s">
+        <v>118</v>
+      </c>
+      <c r="D71" t="s">
+        <v>294</v>
+      </c>
+      <c r="E71" s="2">
+        <v>26157</v>
+      </c>
+      <c r="F71" s="2">
+        <v>30789</v>
+      </c>
+      <c r="G71">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>169</v>
+      </c>
+      <c r="B72" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" t="s">
+        <v>128</v>
+      </c>
+      <c r="D72" t="s">
+        <v>294</v>
+      </c>
+      <c r="E72" s="2">
+        <v>26161</v>
+      </c>
+      <c r="F72" s="2">
+        <v>27902</v>
+      </c>
+      <c r="G72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>170</v>
+      </c>
+      <c r="B73" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" t="s">
+        <v>112</v>
+      </c>
+      <c r="D73" t="s">
+        <v>294</v>
+      </c>
+      <c r="E73" s="2">
+        <v>26220</v>
+      </c>
+      <c r="F73" s="2">
+        <v>27809</v>
+      </c>
+      <c r="G73">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>171</v>
+      </c>
+      <c r="B74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" t="s">
+        <v>112</v>
+      </c>
+      <c r="D74" t="s">
+        <v>294</v>
+      </c>
+      <c r="E74" s="2">
+        <v>26503</v>
+      </c>
+      <c r="F74" s="2">
+        <v>26644</v>
+      </c>
+      <c r="G74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B75" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" t="s">
+        <v>128</v>
+      </c>
+      <c r="D75" t="s">
+        <v>294</v>
+      </c>
+      <c r="E75" s="2">
+        <v>26524</v>
+      </c>
+      <c r="F75" s="2">
+        <v>29008</v>
+      </c>
+      <c r="G75">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>173</v>
+      </c>
+      <c r="B76" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" t="s">
+        <v>112</v>
+      </c>
+      <c r="D76" t="s">
+        <v>294</v>
+      </c>
+      <c r="E76" s="2">
+        <v>26565</v>
+      </c>
+      <c r="F76" s="2">
+        <v>26963</v>
+      </c>
+      <c r="G76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>174</v>
+      </c>
+      <c r="B77" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" t="s">
+        <v>115</v>
+      </c>
+      <c r="D77" t="s">
+        <v>294</v>
+      </c>
+      <c r="E77" s="2">
+        <v>26574</v>
+      </c>
+      <c r="F77" s="2">
+        <v>26574</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>175</v>
+      </c>
+      <c r="B78" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" t="s">
+        <v>112</v>
+      </c>
+      <c r="D78" t="s">
+        <v>294</v>
+      </c>
+      <c r="E78" s="2">
+        <v>26613</v>
+      </c>
+      <c r="F78" s="2">
+        <v>26774</v>
+      </c>
+      <c r="G78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>176</v>
+      </c>
+      <c r="B79" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" t="s">
+        <v>115</v>
+      </c>
+      <c r="D79" t="s">
+        <v>294</v>
+      </c>
+      <c r="E79" s="2">
+        <v>26760</v>
+      </c>
+      <c r="F79" s="2">
+        <v>27536</v>
+      </c>
+      <c r="G79">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
+      <c r="B80" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" t="s">
+        <v>108</v>
+      </c>
+      <c r="D80" t="s">
+        <v>294</v>
+      </c>
+      <c r="E80" s="2">
+        <v>26798</v>
+      </c>
+      <c r="F80" s="2">
+        <v>26798</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80">
         <f>[1]!FT2M(346)</f>
         <v>105.46080000000001</v>
       </c>
-      <c r="D3">
+      <c r="I80">
         <f>[1]!LB2KG(585000)</f>
         <v>265351.32</v>
       </c>
-      <c r="E3">
+      <c r="J80">
         <f>[1]!LB2KG(6221000)</f>
         <v>2821795.8319999999</v>
       </c>
-      <c r="G3" t="s">
+      <c r="L80" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <f>[1]!FT2M(365)</f>
-        <v>111.25200000000001</v>
-      </c>
-      <c r="D4">
-        <f>[1]!LB2KG(553000)</f>
-        <v>250836.37599999999</v>
-      </c>
-      <c r="E4">
-        <f>[1]!LB2KG(6495000)</f>
-        <v>2946080.04</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" t="s">
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>177</v>
+      </c>
+      <c r="B81" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81" t="s">
+        <v>112</v>
+      </c>
+      <c r="D81" t="s">
+        <v>294</v>
+      </c>
+      <c r="E81" s="2">
+        <v>26825</v>
+      </c>
+      <c r="F81" s="2">
+        <v>26825</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>178</v>
+      </c>
+      <c r="B82" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" t="s">
+        <v>128</v>
+      </c>
+      <c r="D82" t="s">
+        <v>294</v>
+      </c>
+      <c r="E82" s="2">
+        <v>26967</v>
+      </c>
+      <c r="F82" s="2">
+        <v>26967</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>179</v>
+      </c>
+      <c r="B83" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83" t="s">
+        <v>112</v>
+      </c>
+      <c r="D83" t="s">
+        <v>294</v>
+      </c>
+      <c r="E83" s="2">
+        <v>27014</v>
+      </c>
+      <c r="F83" s="2">
+        <v>27014</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>180</v>
+      </c>
+      <c r="B84" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84" t="s">
+        <v>112</v>
+      </c>
+      <c r="D84" t="s">
+        <v>294</v>
+      </c>
+      <c r="E84" s="2">
+        <v>27048</v>
+      </c>
+      <c r="F84" s="2">
+        <v>27048</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>181</v>
+      </c>
+      <c r="B85" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85" t="s">
+        <v>118</v>
+      </c>
+      <c r="D85" t="s">
+        <v>294</v>
+      </c>
+      <c r="E85" s="2">
+        <v>27072</v>
+      </c>
+      <c r="F85" s="2">
+        <v>28373</v>
+      </c>
+      <c r="G85">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B86" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86" t="s">
+        <v>112</v>
+      </c>
+      <c r="D86" t="s">
+        <v>294</v>
+      </c>
+      <c r="E86" s="2">
+        <v>27132</v>
+      </c>
+      <c r="F86" s="2">
+        <v>29077</v>
+      </c>
+      <c r="G86">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>183</v>
+      </c>
+      <c r="B87" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87" t="s">
+        <v>128</v>
+      </c>
+      <c r="D87" t="s">
+        <v>294</v>
+      </c>
+      <c r="E87" s="2">
+        <v>27183</v>
+      </c>
+      <c r="F87" s="2">
+        <v>27183</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>184</v>
+      </c>
+      <c r="B88" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88" t="s">
+        <v>115</v>
+      </c>
+      <c r="D88" t="s">
+        <v>294</v>
+      </c>
+      <c r="E88" s="2">
+        <v>27224</v>
+      </c>
+      <c r="F88" s="2">
+        <v>27224</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>185</v>
+      </c>
+      <c r="B89" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" t="s">
+        <v>112</v>
+      </c>
+      <c r="D89" t="s">
+        <v>294</v>
+      </c>
+      <c r="E89" s="2">
+        <v>27348</v>
+      </c>
+      <c r="F89" s="2">
+        <v>29865</v>
+      </c>
+      <c r="G89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>186</v>
+      </c>
+      <c r="B90" t="s">
+        <v>3</v>
+      </c>
+      <c r="C90" t="s">
+        <v>112</v>
+      </c>
+      <c r="D90" t="s">
+        <v>294</v>
+      </c>
+      <c r="E90" s="2">
+        <v>27356</v>
+      </c>
+      <c r="F90" s="2">
+        <v>28362</v>
+      </c>
+      <c r="G90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>187</v>
+      </c>
+      <c r="B91" t="s">
+        <v>3</v>
+      </c>
+      <c r="C91" t="s">
+        <v>112</v>
+      </c>
+      <c r="D91" t="s">
+        <v>294</v>
+      </c>
+      <c r="E91" s="2">
+        <v>27416</v>
+      </c>
+      <c r="F91" s="2">
+        <v>28787</v>
+      </c>
+      <c r="G91">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>188</v>
+      </c>
+      <c r="B92" t="s">
+        <v>3</v>
+      </c>
+      <c r="C92" t="s">
+        <v>118</v>
+      </c>
+      <c r="D92" t="s">
+        <v>294</v>
+      </c>
+      <c r="E92" s="2">
+        <v>27463</v>
+      </c>
+      <c r="F92" s="2">
+        <v>31820</v>
+      </c>
+      <c r="G92">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>189</v>
+      </c>
+      <c r="B93" t="s">
+        <v>3</v>
+      </c>
+      <c r="C93" t="s">
+        <v>128</v>
+      </c>
+      <c r="D93" t="s">
+        <v>294</v>
+      </c>
+      <c r="E93" s="2">
+        <v>27521</v>
+      </c>
+      <c r="F93" s="2">
+        <v>27733</v>
+      </c>
+      <c r="G93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>190</v>
+      </c>
+      <c r="B94" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94" t="s">
+        <v>112</v>
+      </c>
+      <c r="D94" t="s">
+        <v>294</v>
+      </c>
+      <c r="E94" s="2">
+        <v>27615</v>
+      </c>
+      <c r="F94" s="2">
+        <v>27884</v>
+      </c>
+      <c r="G94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B95" t="s">
+        <v>3</v>
+      </c>
+      <c r="C95" t="s">
+        <v>115</v>
+      </c>
+      <c r="D95" t="s">
+        <v>294</v>
+      </c>
+      <c r="E95" s="2">
+        <v>27663</v>
+      </c>
+      <c r="F95" s="2">
+        <v>30455</v>
+      </c>
+      <c r="G95">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B96" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96" t="s">
+        <v>112</v>
+      </c>
+      <c r="D96" t="s">
+        <v>294</v>
+      </c>
+      <c r="E96" s="2">
+        <v>27740</v>
+      </c>
+      <c r="F96" s="2">
+        <v>31893</v>
+      </c>
+      <c r="G96">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>192</v>
+      </c>
+      <c r="B97" t="s">
+        <v>3</v>
+      </c>
+      <c r="C97" t="s">
+        <v>112</v>
+      </c>
+      <c r="D97" t="s">
+        <v>294</v>
+      </c>
+      <c r="E97" s="2">
+        <v>28014</v>
+      </c>
+      <c r="F97" s="2">
+        <v>29416</v>
+      </c>
+      <c r="G97">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>193</v>
+      </c>
+      <c r="B98" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98" t="s">
+        <v>115</v>
+      </c>
+      <c r="D98" t="s">
+        <v>294</v>
+      </c>
+      <c r="E98" s="2">
+        <v>28299</v>
+      </c>
+      <c r="F98" s="2">
+        <v>29573</v>
+      </c>
+      <c r="G98">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>194</v>
+      </c>
+      <c r="B99" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99" t="s">
+        <v>115</v>
+      </c>
+      <c r="D99" t="s">
+        <v>294</v>
+      </c>
+      <c r="E99" s="2">
+        <v>28668</v>
+      </c>
+      <c r="F99" s="2">
+        <v>28668</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B100" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100" t="s">
+        <v>115</v>
+      </c>
+      <c r="D100" t="s">
+        <v>294</v>
+      </c>
+      <c r="E100" s="2">
+        <v>28776</v>
+      </c>
+      <c r="F100" s="2">
+        <v>34782</v>
+      </c>
+      <c r="G100">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>195</v>
+      </c>
+      <c r="B101" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101" t="s">
+        <v>115</v>
+      </c>
+      <c r="D101" t="s">
+        <v>294</v>
+      </c>
+      <c r="E101" s="2">
+        <v>28910</v>
+      </c>
+      <c r="F101" s="2">
+        <v>31116</v>
+      </c>
+      <c r="G101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B102" t="s">
+        <v>3</v>
+      </c>
+      <c r="C102" t="s">
+        <v>128</v>
+      </c>
+      <c r="D102" t="s">
+        <v>294</v>
+      </c>
+      <c r="E102" s="2">
+        <v>29158</v>
+      </c>
+      <c r="F102" s="2">
+        <v>34463</v>
+      </c>
+      <c r="G102">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>197</v>
+      </c>
+      <c r="B103" t="s">
+        <v>3</v>
+      </c>
+      <c r="C103" t="s">
+        <v>112</v>
+      </c>
+      <c r="D103" t="s">
+        <v>294</v>
+      </c>
+      <c r="E103" s="2">
+        <v>29265</v>
+      </c>
+      <c r="F103" s="2">
+        <v>32181</v>
+      </c>
+      <c r="G103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>198</v>
+      </c>
+      <c r="B104" t="s">
+        <v>3</v>
+      </c>
+      <c r="C104" t="s">
+        <v>112</v>
+      </c>
+      <c r="D104" t="s">
+        <v>294</v>
+      </c>
+      <c r="E104" s="2">
+        <v>29540</v>
+      </c>
+      <c r="F104" s="2">
+        <v>30111</v>
+      </c>
+      <c r="G104">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>199</v>
+      </c>
+      <c r="B105" t="s">
+        <v>3</v>
+      </c>
+      <c r="C105" t="s">
+        <v>200</v>
+      </c>
+      <c r="D105" t="s">
+        <v>294</v>
+      </c>
+      <c r="E105" s="2">
+        <v>29688</v>
+      </c>
+      <c r="F105" s="2">
+        <v>30266</v>
+      </c>
+      <c r="G105">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B106" t="s">
+        <v>3</v>
+      </c>
+      <c r="C106" t="s">
+        <v>277</v>
+      </c>
+      <c r="D106" t="s">
+        <v>294</v>
+      </c>
+      <c r="E106" s="2">
+        <v>29688</v>
+      </c>
+      <c r="F106" s="2">
+        <v>40732</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>201</v>
+      </c>
+      <c r="B107" t="s">
+        <v>3</v>
+      </c>
+      <c r="C107" t="s">
+        <v>112</v>
+      </c>
+      <c r="D107" t="s">
+        <v>294</v>
+      </c>
+      <c r="E107" s="2">
+        <v>29801</v>
+      </c>
+      <c r="F107" s="2">
+        <v>29801</v>
+      </c>
+      <c r="G107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>202</v>
+      </c>
+      <c r="B108" t="s">
+        <v>3</v>
+      </c>
+      <c r="C108" t="s">
+        <v>112</v>
+      </c>
+      <c r="D108" t="s">
+        <v>294</v>
+      </c>
+      <c r="E108" s="2">
+        <v>30148</v>
+      </c>
+      <c r="F108" s="2">
+        <v>32591</v>
+      </c>
+      <c r="G108">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>203</v>
+      </c>
+      <c r="B109" t="s">
+        <v>3</v>
+      </c>
+      <c r="C109" t="s">
+        <v>112</v>
+      </c>
+      <c r="D109" t="s">
+        <v>294</v>
+      </c>
+      <c r="E109" s="2">
+        <v>30191</v>
+      </c>
+      <c r="F109" s="2">
+        <v>31856</v>
+      </c>
+      <c r="G109">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>204</v>
+      </c>
+      <c r="B110" t="s">
+        <v>3</v>
+      </c>
+      <c r="C110" t="s">
+        <v>112</v>
+      </c>
+      <c r="D110" t="s">
+        <v>294</v>
+      </c>
+      <c r="E110" s="2">
+        <v>30252</v>
+      </c>
+      <c r="F110" s="2">
+        <v>30910</v>
+      </c>
+      <c r="G110">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>205</v>
+      </c>
+      <c r="B111" t="s">
+        <v>3</v>
+      </c>
+      <c r="C111" t="s">
+        <v>118</v>
+      </c>
+      <c r="D111" t="s">
+        <v>294</v>
+      </c>
+      <c r="E111" s="2">
+        <v>30254</v>
+      </c>
+      <c r="F111" s="2">
+        <v>32755</v>
+      </c>
+      <c r="G111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>206</v>
+      </c>
+      <c r="B112" t="s">
+        <v>3</v>
+      </c>
+      <c r="C112" t="s">
+        <v>115</v>
+      </c>
+      <c r="D112" t="s">
+        <v>294</v>
+      </c>
+      <c r="E112" s="2">
+        <v>30356</v>
+      </c>
+      <c r="F112" s="2">
+        <v>31912</v>
+      </c>
+      <c r="G112">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>207</v>
+      </c>
+      <c r="B113" t="s">
+        <v>3</v>
+      </c>
+      <c r="C113" t="s">
+        <v>200</v>
+      </c>
+      <c r="D113" t="s">
+        <v>294</v>
+      </c>
+      <c r="E113" s="2">
+        <v>30410</v>
+      </c>
+      <c r="F113" s="2">
+        <v>31440</v>
+      </c>
+      <c r="G113">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>205</v>
+      </c>
+      <c r="B114" t="s">
+        <v>3</v>
+      </c>
+      <c r="C114" t="s">
+        <v>118</v>
+      </c>
+      <c r="D114" t="s">
+        <v>294</v>
+      </c>
+      <c r="E114" s="2">
+        <v>30487</v>
+      </c>
+      <c r="F114" s="2">
+        <v>32453</v>
+      </c>
+      <c r="G114">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>208</v>
+      </c>
+      <c r="B115" t="s">
+        <v>3</v>
+      </c>
+      <c r="C115" t="s">
+        <v>115</v>
+      </c>
+      <c r="D115" t="s">
+        <v>294</v>
+      </c>
+      <c r="E115" s="2">
+        <v>30511</v>
+      </c>
+      <c r="F115" s="2">
+        <v>31329</v>
+      </c>
+      <c r="G115">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>205</v>
+      </c>
+      <c r="B116" t="s">
+        <v>3</v>
+      </c>
+      <c r="C116" t="s">
+        <v>118</v>
+      </c>
+      <c r="D116" t="s">
+        <v>294</v>
+      </c>
+      <c r="E116" s="2">
+        <v>30712</v>
+      </c>
+      <c r="F116" s="2">
+        <v>32638</v>
+      </c>
+      <c r="G116">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>209</v>
+      </c>
+      <c r="B117" t="s">
+        <v>3</v>
+      </c>
+      <c r="C117" t="s">
+        <v>210</v>
+      </c>
+      <c r="D117" t="s">
+        <v>294</v>
+      </c>
+      <c r="E117" s="2">
+        <v>30842</v>
+      </c>
+      <c r="F117" s="2">
+        <v>32776</v>
+      </c>
+      <c r="G117">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>211</v>
+      </c>
+      <c r="B118" t="s">
+        <v>3</v>
+      </c>
+      <c r="C118" t="s">
+        <v>200</v>
+      </c>
+      <c r="D118" t="s">
+        <v>294</v>
+      </c>
+      <c r="E118" s="2">
+        <v>32415</v>
+      </c>
+      <c r="F118" s="2">
+        <v>36364</v>
+      </c>
+      <c r="G118">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B119" t="s">
+        <v>3</v>
+      </c>
+      <c r="C119" t="s">
+        <v>112</v>
+      </c>
+      <c r="D119" t="s">
+        <v>294</v>
+      </c>
+      <c r="E119" s="2">
+        <v>32553</v>
+      </c>
+      <c r="F119" s="2">
+        <v>33809</v>
+      </c>
+      <c r="G119">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>213</v>
+      </c>
+      <c r="B120" t="s">
+        <v>3</v>
+      </c>
+      <c r="C120" t="s">
+        <v>118</v>
+      </c>
+      <c r="D120" t="s">
+        <v>294</v>
+      </c>
+      <c r="E120" s="2">
+        <v>32673</v>
+      </c>
+      <c r="F120" s="2">
+        <v>34690</v>
+      </c>
+      <c r="G120">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>214</v>
+      </c>
+      <c r="B121" t="s">
+        <v>3</v>
+      </c>
+      <c r="C121" t="s">
+        <v>112</v>
+      </c>
+      <c r="D121" t="s">
+        <v>294</v>
+      </c>
+      <c r="E121" s="2">
+        <v>32748</v>
+      </c>
+      <c r="F121" s="2">
+        <v>33036</v>
+      </c>
+      <c r="G121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>215</v>
+      </c>
+      <c r="B122" t="s">
+        <v>3</v>
+      </c>
+      <c r="C122" t="s">
+        <v>112</v>
+      </c>
+      <c r="D122" t="s">
+        <v>294</v>
+      </c>
+      <c r="E122" s="2">
+        <v>32830</v>
+      </c>
+      <c r="F122" s="2">
+        <v>32830</v>
+      </c>
+      <c r="G122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>130</v>
+      </c>
+      <c r="B123" t="s">
+        <v>3</v>
+      </c>
+      <c r="C123" t="s">
+        <v>118</v>
+      </c>
+      <c r="D123" t="s">
+        <v>294</v>
+      </c>
+      <c r="E123" s="2">
+        <v>32874</v>
+      </c>
+      <c r="F123" s="2">
+        <v>32874</v>
+      </c>
+      <c r="G123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>216</v>
+      </c>
+      <c r="B124" t="s">
+        <v>3</v>
+      </c>
+      <c r="C124" t="s">
+        <v>112</v>
+      </c>
+      <c r="D124" t="s">
+        <v>294</v>
+      </c>
+      <c r="E124" s="2">
+        <v>32918</v>
+      </c>
+      <c r="F124" s="2">
+        <v>33762</v>
+      </c>
+      <c r="G124">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>217</v>
+      </c>
+      <c r="B125" t="s">
+        <v>3</v>
+      </c>
+      <c r="C125" t="s">
+        <v>115</v>
+      </c>
+      <c r="D125" t="s">
+        <v>294</v>
+      </c>
+      <c r="E125" s="2">
+        <v>32974</v>
+      </c>
+      <c r="F125" s="2">
+        <v>32974</v>
+      </c>
+      <c r="G125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>218</v>
+      </c>
+      <c r="B126" t="s">
+        <v>3</v>
+      </c>
+      <c r="C126" t="s">
+        <v>118</v>
+      </c>
+      <c r="D126" t="s">
+        <v>294</v>
+      </c>
+      <c r="E126" s="2">
+        <v>33032</v>
+      </c>
+      <c r="F126" s="2">
+        <v>35726</v>
+      </c>
+      <c r="G126">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B127" t="s">
+        <v>3</v>
+      </c>
+      <c r="C127" t="s">
+        <v>115</v>
+      </c>
+      <c r="D127" t="s">
+        <v>294</v>
+      </c>
+      <c r="E127" s="2">
+        <v>33081</v>
+      </c>
+      <c r="F127" s="2">
+        <v>35544</v>
+      </c>
+      <c r="G127">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B128" t="s">
+        <v>3</v>
+      </c>
+      <c r="C128" t="s">
+        <v>112</v>
+      </c>
+      <c r="D128" t="s">
+        <v>294</v>
+      </c>
+      <c r="E128" s="2">
+        <v>33203</v>
+      </c>
+      <c r="F128" s="2">
+        <v>40042</v>
+      </c>
+      <c r="G128">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B129" t="s">
+        <v>3</v>
+      </c>
+      <c r="C129" t="s">
+        <v>115</v>
+      </c>
+      <c r="D129" t="s">
+        <v>294</v>
+      </c>
+      <c r="E129" s="2">
+        <v>33579</v>
+      </c>
+      <c r="F129" s="2">
+        <v>35870</v>
+      </c>
+      <c r="G129">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>222</v>
+      </c>
+      <c r="B130" t="s">
+        <v>3</v>
+      </c>
+      <c r="C130" t="s">
+        <v>115</v>
+      </c>
+      <c r="D130" t="s">
+        <v>294</v>
+      </c>
+      <c r="E130" s="2">
+        <v>33765</v>
+      </c>
+      <c r="F130" s="2">
+        <v>35390</v>
+      </c>
+      <c r="G130">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>3</v>
+      </c>
+      <c r="C131" t="s">
+        <v>118</v>
+      </c>
+      <c r="D131" t="s">
+        <v>294</v>
+      </c>
+      <c r="E131" s="2">
+        <v>33872</v>
+      </c>
+      <c r="F131" s="2">
+        <v>33872</v>
+      </c>
+      <c r="G131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B132" t="s">
+        <v>3</v>
+      </c>
+      <c r="C132" t="s">
+        <v>115</v>
+      </c>
+      <c r="D132" t="s">
+        <v>294</v>
+      </c>
+      <c r="E132" s="2">
+        <v>34709</v>
+      </c>
+      <c r="F132" s="2">
+        <v>38230</v>
+      </c>
+      <c r="G132">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>222</v>
+      </c>
+      <c r="B133" t="s">
+        <v>3</v>
+      </c>
+      <c r="C133" t="s">
+        <v>115</v>
+      </c>
+      <c r="D133" t="s">
+        <v>294</v>
+      </c>
+      <c r="E133" s="2">
+        <v>34911</v>
+      </c>
+      <c r="F133" s="2">
+        <v>36819</v>
+      </c>
+      <c r="G133">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>224</v>
+      </c>
+      <c r="B134" t="s">
+        <v>3</v>
+      </c>
+      <c r="C134" t="s">
+        <v>200</v>
+      </c>
+      <c r="D134" t="s">
+        <v>294</v>
+      </c>
+      <c r="E134" s="2">
+        <v>34992</v>
+      </c>
+      <c r="F134" s="2">
+        <v>35236</v>
+      </c>
+      <c r="G134">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B135" t="s">
+        <v>3</v>
+      </c>
+      <c r="C135" t="s">
+        <v>112</v>
+      </c>
+      <c r="D135" t="s">
+        <v>294</v>
+      </c>
+      <c r="E135" s="2">
+        <v>35007</v>
+      </c>
+      <c r="F135" s="2">
+        <v>40844</v>
+      </c>
+      <c r="G135">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>226</v>
+      </c>
+      <c r="B136" t="s">
+        <v>3</v>
+      </c>
+      <c r="C136" t="s">
+        <v>200</v>
+      </c>
+      <c r="D136" t="s">
+        <v>294</v>
+      </c>
+      <c r="E136" s="2">
+        <v>35442</v>
+      </c>
+      <c r="F136" s="2">
+        <v>35948</v>
+      </c>
+      <c r="G136">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>227</v>
+      </c>
+      <c r="B137" t="s">
+        <v>3</v>
+      </c>
+      <c r="C137" t="s">
+        <v>118</v>
+      </c>
+      <c r="D137" t="s">
+        <v>294</v>
+      </c>
+      <c r="E137" s="2">
+        <v>35484</v>
+      </c>
+      <c r="F137" s="2">
+        <v>38031</v>
+      </c>
+      <c r="G137">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>228</v>
+      </c>
+      <c r="B138" t="s">
+        <v>3</v>
+      </c>
+      <c r="C138" t="s">
+        <v>229</v>
+      </c>
+      <c r="D138" t="s">
+        <v>294</v>
+      </c>
+      <c r="E138" s="2">
+        <v>35665</v>
+      </c>
+      <c r="F138" s="2">
+        <v>37164</v>
+      </c>
+      <c r="G138">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>223</v>
+      </c>
+      <c r="B139" t="s">
+        <v>3</v>
+      </c>
+      <c r="C139" t="s">
+        <v>115</v>
+      </c>
+      <c r="D139" t="s">
+        <v>294</v>
+      </c>
+      <c r="E139" s="2">
+        <v>35677</v>
+      </c>
+      <c r="F139" s="2">
+        <v>36512</v>
+      </c>
+      <c r="G139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>230</v>
+      </c>
+      <c r="B140" t="s">
+        <v>3</v>
+      </c>
+      <c r="C140" t="s">
+        <v>118</v>
+      </c>
+      <c r="D140" t="s">
+        <v>294</v>
+      </c>
+      <c r="E140" s="2">
+        <v>35718</v>
+      </c>
+      <c r="F140" s="2">
+        <v>37872</v>
+      </c>
+      <c r="G140">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>231</v>
+      </c>
+      <c r="B141" t="s">
+        <v>3</v>
+      </c>
+      <c r="C141" t="s">
+        <v>229</v>
+      </c>
+      <c r="D141" t="s">
+        <v>294</v>
+      </c>
+      <c r="E141" s="2">
+        <v>35802</v>
+      </c>
+      <c r="F141" s="2">
+        <v>36427</v>
+      </c>
+      <c r="G141">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>232</v>
+      </c>
+      <c r="B142" t="s">
+        <v>3</v>
+      </c>
+      <c r="C142" t="s">
+        <v>200</v>
+      </c>
+      <c r="D142" t="s">
+        <v>294</v>
+      </c>
+      <c r="E142" s="2">
+        <v>35818</v>
+      </c>
+      <c r="F142" s="2">
+        <v>37316</v>
+      </c>
+      <c r="G142">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B143" t="s">
+        <v>3</v>
+      </c>
+      <c r="C143" t="s">
+        <v>112</v>
+      </c>
+      <c r="D143" t="s">
+        <v>294</v>
+      </c>
+      <c r="E143" s="2">
+        <v>35840</v>
+      </c>
+      <c r="F143" s="2">
+        <v>40488</v>
+      </c>
+      <c r="G143">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>234</v>
+      </c>
+      <c r="B144" t="s">
+        <v>3</v>
+      </c>
+      <c r="C144" t="s">
+        <v>112</v>
+      </c>
+      <c r="D144" t="s">
+        <v>294</v>
+      </c>
+      <c r="E144" s="2">
+        <v>36092</v>
+      </c>
+      <c r="F144" s="2">
+        <v>37111</v>
+      </c>
+      <c r="G144">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>235</v>
+      </c>
+      <c r="B145" t="s">
+        <v>3</v>
+      </c>
+      <c r="C145" t="s">
+        <v>112</v>
+      </c>
+      <c r="D145" t="s">
+        <v>294</v>
+      </c>
+      <c r="E145" s="2">
+        <v>36140</v>
+      </c>
+      <c r="F145" s="2">
+        <v>37440</v>
+      </c>
+      <c r="G145">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>236</v>
+      </c>
+      <c r="B146" t="s">
+        <v>3</v>
+      </c>
+      <c r="C146" t="s">
+        <v>112</v>
+      </c>
+      <c r="D146" t="s">
+        <v>294</v>
+      </c>
+      <c r="E146" s="2">
+        <v>36198</v>
+      </c>
+      <c r="F146" s="2">
+        <v>36198</v>
+      </c>
+      <c r="G146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>237</v>
+      </c>
+      <c r="B147" t="s">
+        <v>3</v>
+      </c>
+      <c r="C147" t="s">
+        <v>118</v>
+      </c>
+      <c r="D147" t="s">
+        <v>294</v>
+      </c>
+      <c r="E147" s="2">
+        <v>36302</v>
+      </c>
+      <c r="F147" s="2">
+        <v>38644</v>
+      </c>
+      <c r="G147">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>238</v>
+      </c>
+      <c r="B148" t="s">
+        <v>3</v>
+      </c>
+      <c r="C148" t="s">
+        <v>112</v>
+      </c>
+      <c r="D148" t="s">
+        <v>294</v>
+      </c>
+      <c r="E148" s="2">
+        <v>36335</v>
+      </c>
+      <c r="F148" s="2">
+        <v>42035</v>
+      </c>
+      <c r="G148">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>239</v>
+      </c>
+      <c r="B149" t="s">
+        <v>3</v>
+      </c>
+      <c r="C149" t="s">
+        <v>240</v>
+      </c>
+      <c r="D149" t="s">
+        <v>294</v>
+      </c>
+      <c r="E149" s="2">
+        <v>36552</v>
+      </c>
+      <c r="F149" s="2">
+        <v>41598</v>
+      </c>
+      <c r="G149">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>241</v>
+      </c>
+      <c r="B150" t="s">
+        <v>3</v>
+      </c>
+      <c r="C150" t="s">
+        <v>115</v>
+      </c>
+      <c r="D150" t="s">
+        <v>294</v>
+      </c>
+      <c r="E150" s="2">
+        <v>36670</v>
+      </c>
+      <c r="F150" s="2">
+        <v>38059</v>
+      </c>
+      <c r="G150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>242</v>
+      </c>
+      <c r="B151" t="s">
+        <v>3</v>
+      </c>
+      <c r="C151" t="s">
+        <v>115</v>
+      </c>
+      <c r="D151" t="s">
+        <v>294</v>
+      </c>
+      <c r="E151" s="2">
+        <v>37308</v>
+      </c>
+      <c r="F151" s="2">
+        <v>37308</v>
+      </c>
+      <c r="G151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>242</v>
+      </c>
+      <c r="B152" t="s">
+        <v>3</v>
+      </c>
+      <c r="C152" t="s">
+        <v>115</v>
+      </c>
+      <c r="D152" t="s">
+        <v>294</v>
+      </c>
+      <c r="E152" s="2">
+        <v>37308</v>
+      </c>
+      <c r="F152" s="2">
+        <v>38386</v>
+      </c>
+      <c r="G152">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>243</v>
+      </c>
+      <c r="B153" t="s">
+        <v>3</v>
+      </c>
+      <c r="C153" t="s">
+        <v>200</v>
+      </c>
+      <c r="D153" t="s">
+        <v>294</v>
+      </c>
+      <c r="E153" s="2">
+        <v>37354</v>
+      </c>
+      <c r="F153" s="2">
+        <v>405974</v>
+      </c>
+      <c r="G153">
         <v>27</v>
       </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" t="s">
-        <v>25</v>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B154" t="s">
+        <v>3</v>
+      </c>
+      <c r="C154" t="s">
+        <v>210</v>
+      </c>
+      <c r="D154" t="s">
+        <v>294</v>
+      </c>
+      <c r="E154" s="2">
+        <v>37489</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B155" t="s">
+        <v>3</v>
+      </c>
+      <c r="C155" t="s">
+        <v>210</v>
+      </c>
+      <c r="D155" t="s">
+        <v>294</v>
+      </c>
+      <c r="E155" s="2">
+        <v>37489</v>
+      </c>
+      <c r="F155" s="2">
+        <v>42795</v>
+      </c>
+      <c r="G155">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B156" t="s">
+        <v>3</v>
+      </c>
+      <c r="C156" t="s">
+        <v>246</v>
+      </c>
+      <c r="D156" t="s">
+        <v>294</v>
+      </c>
+      <c r="E156" s="2">
+        <v>110628</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B157" t="s">
+        <v>3</v>
+      </c>
+      <c r="C157" t="s">
+        <v>246</v>
+      </c>
+      <c r="D157" t="s">
+        <v>294</v>
+      </c>
+      <c r="E157" s="2">
+        <v>37580</v>
+      </c>
+      <c r="F157" s="2">
+        <v>42601</v>
+      </c>
+      <c r="G157">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>247</v>
+      </c>
+      <c r="B158" t="s">
+        <v>3</v>
+      </c>
+      <c r="C158" t="s">
+        <v>246</v>
+      </c>
+      <c r="D158" t="s">
+        <v>294</v>
+      </c>
+      <c r="E158" s="2">
+        <v>37691</v>
+      </c>
+      <c r="F158" s="2">
+        <v>39025</v>
+      </c>
+      <c r="G158">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>248</v>
+      </c>
+      <c r="B159" t="s">
+        <v>3</v>
+      </c>
+      <c r="C159" t="s">
+        <v>112</v>
+      </c>
+      <c r="D159" t="s">
+        <v>294</v>
+      </c>
+      <c r="E159" s="2">
+        <v>37810</v>
+      </c>
+      <c r="F159" s="2">
+        <v>39352</v>
+      </c>
+      <c r="G159">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>249</v>
+      </c>
+      <c r="B160" t="s">
+        <v>3</v>
+      </c>
+      <c r="C160" t="s">
+        <v>210</v>
+      </c>
+      <c r="D160" t="s">
+        <v>294</v>
+      </c>
+      <c r="E160" s="2">
+        <v>37819</v>
+      </c>
+      <c r="F160" s="2">
+        <v>38338</v>
+      </c>
+      <c r="G160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>250</v>
+      </c>
+      <c r="B161" t="s">
+        <v>3</v>
+      </c>
+      <c r="C161" t="s">
+        <v>246</v>
+      </c>
+      <c r="D161" t="s">
+        <v>294</v>
+      </c>
+      <c r="E161" s="2">
+        <v>38343</v>
+      </c>
+      <c r="F161" s="2">
+        <v>42532</v>
+      </c>
+      <c r="G161">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>251</v>
+      </c>
+      <c r="B162" t="s">
+        <v>3</v>
+      </c>
+      <c r="C162" t="s">
+        <v>210</v>
+      </c>
+      <c r="D162" t="s">
+        <v>294</v>
+      </c>
+      <c r="E162" s="2">
+        <v>38422</v>
+      </c>
+      <c r="F162" s="2">
+        <v>42722</v>
+      </c>
+      <c r="G162">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>252</v>
+      </c>
+      <c r="B163" t="s">
+        <v>3</v>
+      </c>
+      <c r="C163" t="s">
+        <v>210</v>
+      </c>
+      <c r="D163" t="s">
+        <v>294</v>
+      </c>
+      <c r="E163" s="2">
+        <v>38736</v>
+      </c>
+      <c r="F163" s="2">
+        <v>42545</v>
+      </c>
+      <c r="G163">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>253</v>
+      </c>
+      <c r="B164" t="s">
+        <v>3</v>
+      </c>
+      <c r="C164" t="s">
+        <v>210</v>
+      </c>
+      <c r="D164" t="s">
+        <v>294</v>
+      </c>
+      <c r="E164" s="2">
+        <v>38827</v>
+      </c>
+      <c r="F164" s="2">
+        <v>42621</v>
+      </c>
+      <c r="G164">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>254</v>
+      </c>
+      <c r="B165" t="s">
+        <v>3</v>
+      </c>
+      <c r="C165" t="s">
+        <v>210</v>
+      </c>
+      <c r="D165" t="s">
+        <v>294</v>
+      </c>
+      <c r="E165" s="2">
+        <v>39366</v>
+      </c>
+      <c r="F165" s="2">
+        <v>42579</v>
+      </c>
+      <c r="G165">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>255</v>
+      </c>
+      <c r="B166" t="s">
+        <v>3</v>
+      </c>
+      <c r="C166" t="s">
+        <v>246</v>
+      </c>
+      <c r="D166" t="s">
+        <v>294</v>
+      </c>
+      <c r="E166" s="2">
+        <v>40153</v>
+      </c>
+      <c r="F166" s="2">
+        <v>42711</v>
+      </c>
+      <c r="G166">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>256</v>
+      </c>
+      <c r="B167" t="s">
+        <v>3</v>
+      </c>
+      <c r="C167" t="s">
+        <v>210</v>
+      </c>
+      <c r="D167" t="s">
+        <v>294</v>
+      </c>
+      <c r="E167" s="2">
+        <v>40291</v>
+      </c>
+      <c r="F167" s="2">
+        <v>42144</v>
+      </c>
+      <c r="G167">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>257</v>
+      </c>
+      <c r="B168" t="s">
+        <v>3</v>
+      </c>
+      <c r="C168" t="s">
+        <v>258</v>
+      </c>
+      <c r="D168" t="s">
+        <v>294</v>
+      </c>
+      <c r="E168" s="2">
+        <v>40333</v>
+      </c>
+      <c r="F168" s="2">
+        <v>41334</v>
+      </c>
+      <c r="G168">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>276</v>
+      </c>
+      <c r="B169" t="s">
+        <v>3</v>
+      </c>
+      <c r="C169" t="s">
+        <v>258</v>
+      </c>
+      <c r="D169" t="s">
+        <v>294</v>
+      </c>
+      <c r="E169" s="2">
+        <v>40333</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>259</v>
+      </c>
+      <c r="B170" t="s">
+        <v>3</v>
+      </c>
+      <c r="C170" t="s">
+        <v>210</v>
+      </c>
+      <c r="D170" t="s">
+        <v>294</v>
+      </c>
+      <c r="E170" s="2">
+        <v>40404</v>
+      </c>
+      <c r="F170" s="2">
+        <v>41535</v>
+      </c>
+      <c r="G170">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>260</v>
+      </c>
+      <c r="B171" t="s">
+        <v>3</v>
+      </c>
+      <c r="C171" t="s">
+        <v>240</v>
+      </c>
+      <c r="D171" t="s">
+        <v>294</v>
+      </c>
+      <c r="E171" s="2">
+        <v>40447</v>
+      </c>
+      <c r="F171" s="2">
+        <v>40502</v>
+      </c>
+      <c r="G171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>261</v>
+      </c>
+      <c r="B172" t="s">
+        <v>3</v>
+      </c>
+      <c r="C172" t="s">
+        <v>240</v>
+      </c>
+      <c r="D172" t="s">
+        <v>294</v>
+      </c>
+      <c r="E172" s="2">
+        <v>40813</v>
+      </c>
+      <c r="F172" s="2">
+        <v>40813</v>
+      </c>
+      <c r="G172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>262</v>
+      </c>
+      <c r="B173" t="s">
+        <v>3</v>
+      </c>
+      <c r="C173" t="s">
+        <v>210</v>
+      </c>
+      <c r="D173" t="s">
+        <v>294</v>
+      </c>
+      <c r="E173" s="2">
+        <v>40873</v>
+      </c>
+      <c r="F173" s="2">
+        <v>42693</v>
+      </c>
+      <c r="G173">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>263</v>
+      </c>
+      <c r="B174" t="s">
+        <v>3</v>
+      </c>
+      <c r="C174" t="s">
+        <v>246</v>
+      </c>
+      <c r="D174" t="s">
+        <v>294</v>
+      </c>
+      <c r="E174" s="2">
+        <v>41002</v>
+      </c>
+      <c r="F174" s="2">
+        <v>42410</v>
+      </c>
+      <c r="G174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>264</v>
+      </c>
+      <c r="B175" t="s">
+        <v>3</v>
+      </c>
+      <c r="C175" t="s">
+        <v>265</v>
+      </c>
+      <c r="D175" t="s">
+        <v>294</v>
+      </c>
+      <c r="E175" s="2">
+        <v>41385</v>
+      </c>
+      <c r="F175" s="2">
+        <v>41535</v>
+      </c>
+      <c r="G175">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>266</v>
+      </c>
+      <c r="B176" t="s">
+        <v>3</v>
+      </c>
+      <c r="C176" t="s">
+        <v>240</v>
+      </c>
+      <c r="D176" t="s">
+        <v>294</v>
+      </c>
+      <c r="E176" s="2">
+        <v>41524</v>
+      </c>
+      <c r="F176" s="2">
+        <v>41524</v>
+      </c>
+      <c r="G176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B177" t="s">
+        <v>3</v>
+      </c>
+      <c r="C177" t="s">
+        <v>258</v>
+      </c>
+      <c r="D177" t="s">
+        <v>294</v>
+      </c>
+      <c r="E177" s="2">
+        <v>41546</v>
+      </c>
+      <c r="F177" s="2">
+        <v>42386</v>
+      </c>
+      <c r="G177">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>268</v>
+      </c>
+      <c r="B178" t="s">
+        <v>3</v>
+      </c>
+      <c r="C178" t="s">
+        <v>265</v>
+      </c>
+      <c r="D178" t="s">
+        <v>294</v>
+      </c>
+      <c r="E178" s="2">
+        <v>41648</v>
+      </c>
+      <c r="F178" s="2">
+        <v>41833</v>
+      </c>
+      <c r="G178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>269</v>
+      </c>
+      <c r="B179" t="s">
+        <v>3</v>
+      </c>
+      <c r="C179" t="s">
+        <v>265</v>
+      </c>
+      <c r="D179" t="s">
+        <v>294</v>
+      </c>
+      <c r="E179" s="2">
+        <v>41940</v>
+      </c>
+      <c r="F179" s="2">
+        <v>41940</v>
+      </c>
+      <c r="G179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B180" t="s">
+        <v>3</v>
+      </c>
+      <c r="C180" t="s">
+        <v>258</v>
+      </c>
+      <c r="D180" t="s">
+        <v>294</v>
+      </c>
+      <c r="E180" s="2">
+        <v>42360</v>
+      </c>
+      <c r="F180" s="2">
+        <v>42810</v>
+      </c>
+      <c r="G180">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -1065,7 +5762,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -1160,7 +5857,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:X11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1183,9 +5882,9 @@
     <col min="22" max="22" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
@@ -1194,75 +5893,75 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E1" t="s">
         <v>8</v>
       </c>
       <c r="F1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O1" t="s">
         <v>38</v>
       </c>
-      <c r="H1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" t="s">
-        <v>72</v>
-      </c>
-      <c r="L1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O1" t="s">
-        <v>39</v>
-      </c>
       <c r="P1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S1" t="s">
         <v>46</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>47</v>
       </c>
-      <c r="T1" t="s">
-        <v>48</v>
-      </c>
       <c r="U1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="V1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="W1" t="s">
         <v>11</v>
       </c>
       <c r="X1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
         <v>23</v>
@@ -1293,16 +5992,16 @@
         <v>292</v>
       </c>
       <c r="L2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="N2" t="s">
-        <v>53</v>
-      </c>
       <c r="O2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P2">
         <v>8</v>
@@ -1321,18 +6020,18 @@
         <v>1961</v>
       </c>
       <c r="W2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="X2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
@@ -1363,16 +6062,16 @@
         <v>292</v>
       </c>
       <c r="L3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N3" t="s">
         <v>52</v>
       </c>
-      <c r="N3" t="s">
-        <v>53</v>
-      </c>
       <c r="O3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P3">
         <v>8</v>
@@ -1385,24 +6084,24 @@
         <v>8</v>
       </c>
       <c r="T3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V3">
         <v>1961</v>
       </c>
       <c r="W3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="X3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
         <v>29</v>
@@ -1433,16 +6132,16 @@
         <v>292</v>
       </c>
       <c r="L4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N4" t="s">
         <v>52</v>
       </c>
-      <c r="N4" t="s">
-        <v>53</v>
-      </c>
       <c r="O4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P4">
         <v>8</v>
@@ -1461,18 +6160,18 @@
         <v>1964</v>
       </c>
       <c r="W4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
@@ -1503,16 +6202,16 @@
         <v>292</v>
       </c>
       <c r="L5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M5" t="s">
+        <v>51</v>
+      </c>
+      <c r="N5" t="s">
         <v>52</v>
       </c>
-      <c r="N5" t="s">
-        <v>53</v>
-      </c>
       <c r="O5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P5">
         <v>8</v>
@@ -1525,21 +6224,21 @@
         <v>8</v>
       </c>
       <c r="T5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V5">
         <v>1964</v>
       </c>
       <c r="W5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -1572,16 +6271,16 @@
         <v>292</v>
       </c>
       <c r="L6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N6" t="s">
         <v>52</v>
       </c>
-      <c r="N6" t="s">
-        <v>53</v>
-      </c>
       <c r="O6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P6">
         <v>8</v>
@@ -1600,15 +6299,15 @@
         <v>1966</v>
       </c>
       <c r="W6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="X6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -1641,16 +6340,16 @@
         <v>292</v>
       </c>
       <c r="L7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N7" t="s">
         <v>52</v>
       </c>
-      <c r="N7" t="s">
-        <v>53</v>
-      </c>
       <c r="O7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P7">
         <v>8</v>
@@ -1663,21 +6362,21 @@
         <v>8</v>
       </c>
       <c r="T7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V7">
         <v>1966</v>
       </c>
       <c r="W7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="X7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -1715,16 +6414,16 @@
         <v>359.85267728000002</v>
       </c>
       <c r="L8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M8" t="s">
+        <v>51</v>
+      </c>
+      <c r="N8" t="s">
         <v>52</v>
       </c>
-      <c r="N8" t="s">
-        <v>53</v>
-      </c>
       <c r="O8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P8">
         <v>8</v>
@@ -1743,21 +6442,21 @@
         <v>0</v>
       </c>
       <c r="U8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V8">
         <v>1973</v>
       </c>
       <c r="W8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="X8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -1795,16 +6494,16 @@
         <v>359.85267728000002</v>
       </c>
       <c r="L9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M9" t="s">
+        <v>51</v>
+      </c>
+      <c r="N9" t="s">
         <v>52</v>
       </c>
-      <c r="N9" t="s">
-        <v>53</v>
-      </c>
       <c r="O9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P9">
         <v>8</v>
@@ -1820,24 +6519,24 @@
         <v>8</v>
       </c>
       <c r="T9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V9">
         <v>1973</v>
       </c>
       <c r="W9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="X9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -1871,10 +6570,10 @@
         <v>424.2</v>
       </c>
       <c r="M10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O10">
         <v>5.5</v>
@@ -1893,18 +6592,18 @@
         <v>7</v>
       </c>
       <c r="T10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="X10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -1938,10 +6637,10 @@
         <v>428.2</v>
       </c>
       <c r="M11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O11">
         <v>4.8</v>
@@ -1960,13 +6659,13 @@
         <v>7</v>
       </c>
       <c r="T11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="X11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1991,28 +6690,28 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" t="s">
         <v>74</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>75</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>76</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>77</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>78</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>79</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>80</v>
-      </c>
-      <c r="H1" t="s">
-        <v>81</v>
       </c>
       <c r="I1" t="s">
         <v>11</v>
@@ -2020,10 +6719,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2">
         <v>2.016</v>
@@ -2048,21 +6747,21 @@
         <v>7.1176643999999997E-2</v>
       </c>
       <c r="I2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J2" t="s">
         <v>98</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>99</v>
-      </c>
-      <c r="K2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" t="s">
         <v>82</v>
-      </c>
-      <c r="B3" t="s">
-        <v>83</v>
       </c>
       <c r="C3">
         <v>92.016000000000005</v>
@@ -2087,27 +6786,27 @@
         <v>1.43072244</v>
       </c>
       <c r="I3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J3" t="s">
         <v>93</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>94</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>95</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>96</v>
-      </c>
-      <c r="M3" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" t="s">
         <v>84</v>
-      </c>
-      <c r="B4" t="s">
-        <v>85</v>
       </c>
       <c r="C4">
         <v>46.075000000000003</v>
@@ -2132,25 +6831,25 @@
         <v>0.87353154</v>
       </c>
       <c r="I4" t="s">
+        <v>85</v>
+      </c>
+      <c r="J4" t="s">
         <v>86</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>87</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>88</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>89</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>90</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>91</v>
-      </c>
-      <c r="O4" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/Rocket Specs.xlsx
+++ b/Rocket Specs.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pap\Google Drive\Rocket Reference\Git\rr-tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan paplaczyk\Google Drive\Rocket Reference\Git\rr-tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E783AC-1DDB-4F09-B836-E4F679CC5ECD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FE57B926-6979-4B19-9728-9D2B46A5BF0C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Launch Vehicles" sheetId="1" r:id="rId1"/>
@@ -20,9 +19,9 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
-  <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,12 +31,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Pap</author>
   </authors>
   <commentList>
-    <comment ref="H51" authorId="0" shapeId="0" xr:uid="{3EFEA1D7-B587-49E5-9D72-0A88DDE80BFD}">
+    <comment ref="H51" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -45,7 +44,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Top of LES</t>
         </r>
@@ -56,12 +55,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Pap</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{09F365D0-416A-446B-8176-0292924FF192}">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -69,13 +68,13 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Includes the Interstage</t>
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{12A98E50-BFBF-403D-B49C-C69F62733F45}">
+    <comment ref="E3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -83,7 +82,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Fin Edge to Fin Edge</t>
         </r>
@@ -94,12 +93,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Pap</author>
   </authors>
   <commentList>
-    <comment ref="Q3" authorId="0" shapeId="0" xr:uid="{4002218C-C073-4E60-AF24-A6E0F78B0C96}">
+    <comment ref="Q3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -107,13 +106,13 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Factor Gimbal Mass to be 0.0007 lb per lbf of thrust from 1972 study NASA-CR-129135 Aerosapce Synthesis Program</t>
         </r>
       </text>
     </comment>
-    <comment ref="Q5" authorId="0" shapeId="0" xr:uid="{83B97D9A-6062-4970-A1AC-EDF24ACC6A68}">
+    <comment ref="Q5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -121,13 +120,13 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Factor Gimbal Mass to be 0.0007 lb per lbf of thrust from 1972 study NASA-CR-129135 Aerosapce Synthesis Program</t>
         </r>
       </text>
     </comment>
-    <comment ref="Q7" authorId="0" shapeId="0" xr:uid="{8938443B-9B8C-4970-BE33-75ADBCA2E30B}">
+    <comment ref="Q7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -135,13 +134,13 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Factor Gimbal Mass to be 0.0007 lb per lbf of thrust from 1972 study NASA-CR-129135 Aerosapce Synthesis Program</t>
         </r>
       </text>
     </comment>
-    <comment ref="Q9" authorId="0" shapeId="0" xr:uid="{6D6AE3B7-F28D-4AE3-AC03-FCFD6544E04B}">
+    <comment ref="Q9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -149,7 +148,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Factor Gimbal Mass to be 0.0007 lb per lbf of thrust from 1972 study NASA-CR-129135 Aerosapce Synthesis Program</t>
         </r>
@@ -160,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="298">
   <si>
     <t>LV</t>
   </si>
@@ -1045,12 +1044,21 @@
   </si>
   <si>
     <t>NASA</t>
+  </si>
+  <si>
+    <t>J-2 200K</t>
+  </si>
+  <si>
+    <t>S-II, S-IVB</t>
+  </si>
+  <si>
+    <t>J-2 225K</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1064,7 +1072,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1093,18 +1101,42 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="8">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1112,12 +1144,6 @@
           <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1153,70 +1179,89 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="PersonalUDF"/>
+    </sheetNames>
+    <definedNames>
+      <definedName name="IN2M"/>
+      <definedName name="LB2KG"/>
+    </definedNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{73815901-8414-40EF-AB3D-E7F9387784D7}" name="Table2" displayName="Table2" ref="A1:M180" totalsRowShown="0">
-  <autoFilter ref="A1:M180" xr:uid="{CF3B8BC2-A280-4EF8-89D5-B331496FC368}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:M180" totalsRowShown="0">
+  <autoFilter ref="A1:M180">
     <filterColumn colId="0">
-      <colorFilter dxfId="0"/>
+      <colorFilter dxfId="7"/>
     </filterColumn>
   </autoFilter>
   <sortState ref="A2:M180">
     <sortCondition ref="E1:E180"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{46D91DB2-A452-47C4-A419-17B56A70CCB8}" name="LV"/>
-    <tableColumn id="2" xr3:uid="{056E6DBC-4D6F-4D6B-A6DA-1269FA5475B8}" name="Country"/>
-    <tableColumn id="3" xr3:uid="{3D3AA713-A01C-4925-9AC1-1D8C77486821}" name="Family"/>
-    <tableColumn id="13" xr3:uid="{38D52EBA-B6F3-4FF5-ADEC-27FBB6C49F68}" name="Agency"/>
-    <tableColumn id="4" xr3:uid="{4F0C3C58-5A3C-4D5E-9CE0-A635F5DA6276}" name="First Launch" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{85B26A7B-4F5A-4920-BC13-48B3DF190C06}" name="Last Launch" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{C84BAB22-5B2E-418A-81C0-52771A64B02F}" name="Orbital Flights"/>
-    <tableColumn id="7" xr3:uid="{FA61331B-B689-4EE6-B1E0-8D9F52731B0D}" name="Height"/>
-    <tableColumn id="8" xr3:uid="{9E051F27-5810-4DF6-B38B-7F34C29A30DE}" name="Dry Mass"/>
-    <tableColumn id="9" xr3:uid="{D291F012-4027-4431-9960-BC528597F433}" name="Liftoff Mass"/>
-    <tableColumn id="10" xr3:uid="{2C6A67EB-739A-403A-B7E3-40384F234A72}" name="Stages"/>
-    <tableColumn id="11" xr3:uid="{020B3A87-58B8-455D-B2BA-936D5B2CAD98}" name="Source"/>
-    <tableColumn id="12" xr3:uid="{5D5BBEA9-6092-40AA-91DC-2C14899A49BD}" name="Launches"/>
+    <tableColumn id="1" name="LV"/>
+    <tableColumn id="2" name="Country"/>
+    <tableColumn id="3" name="Family"/>
+    <tableColumn id="13" name="Agency"/>
+    <tableColumn id="4" name="First Launch" dataDxfId="6"/>
+    <tableColumn id="5" name="Last Launch" dataDxfId="5"/>
+    <tableColumn id="6" name="Orbital Flights"/>
+    <tableColumn id="7" name="Height"/>
+    <tableColumn id="8" name="Dry Mass"/>
+    <tableColumn id="9" name="Liftoff Mass"/>
+    <tableColumn id="10" name="Stages"/>
+    <tableColumn id="11" name="Source"/>
+    <tableColumn id="12" name="Launches"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E8E7155B-DD50-49EF-9783-96A6FF6E0B10}" name="Table1" displayName="Table1" ref="A1:X11" totalsRowShown="0">
-  <autoFilter ref="A1:X11" xr:uid="{C9100D55-8A70-4C51-BFF2-B7467913C5C8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:X14" totalsRowShown="0">
+  <autoFilter ref="A1:X14"/>
   <sortState ref="A2:W11">
     <sortCondition ref="V1:V11"/>
   </sortState>
   <tableColumns count="24">
-    <tableColumn id="1" xr3:uid="{8B27E4C4-A249-44DF-91F8-4687AC807918}" name="Engine"/>
-    <tableColumn id="2" xr3:uid="{65B30C93-87C4-4677-9D85-74C1E54C7CA5}" name="Stage"/>
-    <tableColumn id="3" xr3:uid="{2AB1FD26-0CA6-48CC-908E-4DDF8C5E5FF7}" name="LV"/>
-    <tableColumn id="4" xr3:uid="{74E49A97-AAC8-416B-AEFC-5CE674012505}" name="Length">
+    <tableColumn id="1" name="Engine"/>
+    <tableColumn id="2" name="Stage"/>
+    <tableColumn id="3" name="LV"/>
+    <tableColumn id="4" name="Length">
       <calculatedColumnFormula>[1]!IN2M(101.61)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{80584F54-066B-4E64-85EA-7EAD4A2DFB16}" name="Diameter">
+    <tableColumn id="5" name="Diameter">
       <calculatedColumnFormula>[1]!IN2M(45.49)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{A5D0FADB-D590-4E09-9A23-773BB3EC74F9}" name="Thrust (SL)"/>
-    <tableColumn id="7" xr3:uid="{58BC5EAF-56F9-45F9-884D-41882ADC2D1E}" name="Thrust (Vac)"/>
-    <tableColumn id="8" xr3:uid="{D59CC748-6F69-4313-AA73-C4859C74DB8D}" name="Burn Time"/>
-    <tableColumn id="9" xr3:uid="{542F191B-5F62-4E71-9434-BD73790A0645}" name="ISP (SL)"/>
-    <tableColumn id="10" xr3:uid="{C781136E-0DC2-44A7-B0D1-BA2E3D9695E4}" name="ISP (Vac)"/>
-    <tableColumn id="11" xr3:uid="{43803DB1-46AA-4326-AF6C-7083D1503525}" name="Flow Rate"/>
-    <tableColumn id="12" xr3:uid="{29449D02-9443-4988-9F7E-6320CCBBE68D}" name="Throttle"/>
-    <tableColumn id="13" xr3:uid="{24DA6064-1337-4EC5-9C4D-27C139324CDA}" name="Fuel"/>
-    <tableColumn id="14" xr3:uid="{24A259A3-25C0-4766-9779-07AE7597B503}" name="Oxidizer"/>
-    <tableColumn id="15" xr3:uid="{7BC30D63-97FC-401D-8809-B34EE4855CBB}" name="Mixture Ratio"/>
-    <tableColumn id="16" xr3:uid="{D8843B4C-B4DA-479A-B175-957DA82CB580}" name="Expansion Ratio"/>
-    <tableColumn id="17" xr3:uid="{3C428537-C620-4555-8296-9196FF5F2FD3}" name="Mass"/>
-    <tableColumn id="18" xr3:uid="{AE3B56B4-9216-4B45-9F3F-A59E34A17CE8}" name="Chamber Pressure (psia)"/>
-    <tableColumn id="19" xr3:uid="{A6BF9948-BC0A-4DC6-AFC0-E8CD60D12B38}" name="Gimbal Range"/>
-    <tableColumn id="20" xr3:uid="{05EDBA73-90FD-41FA-A937-C816C901895D}" name="Gimbal Rate"/>
-    <tableColumn id="21" xr3:uid="{DD7824AD-469B-4928-9708-217DF655FC78}" name="Ignition Timing"/>
-    <tableColumn id="22" xr3:uid="{7FB4F309-165F-4479-A165-D095C4A165DB}" name="First Flight"/>
-    <tableColumn id="23" xr3:uid="{256D2CC6-9AD0-4289-9AAA-C71058D33489}" name="Notes"/>
-    <tableColumn id="24" xr3:uid="{CED17D85-4DE2-43B4-BD99-B341969FEFDA}" name="Sources"/>
+    <tableColumn id="6" name="Thrust (SL)"/>
+    <tableColumn id="7" name="Thrust (Vac)"/>
+    <tableColumn id="8" name="Burn Time"/>
+    <tableColumn id="9" name="ISP (SL)"/>
+    <tableColumn id="10" name="ISP (Vac)"/>
+    <tableColumn id="11" name="Flow Rate"/>
+    <tableColumn id="12" name="Throttle"/>
+    <tableColumn id="13" name="Fuel"/>
+    <tableColumn id="14" name="Oxidizer"/>
+    <tableColumn id="15" name="Mixture Ratio"/>
+    <tableColumn id="16" name="Expansion Ratio"/>
+    <tableColumn id="17" name="Mass"/>
+    <tableColumn id="18" name="Chamber Pressure (psia)"/>
+    <tableColumn id="19" name="Gimbal Range"/>
+    <tableColumn id="20" name="Gimbal Rate" dataDxfId="4"/>
+    <tableColumn id="21" name="Ignition Timing" dataDxfId="3"/>
+    <tableColumn id="22" name="First Flight" dataDxfId="2"/>
+    <tableColumn id="23" name="Notes" dataDxfId="1"/>
+    <tableColumn id="24" name="Sources" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1518,11 +1563,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AED7E730-D19C-44A8-86E2-3EA4822F6F6D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+    <sheetView topLeftCell="A39" workbookViewId="0">
       <selection sqref="A1:D180"/>
     </sheetView>
   </sheetViews>
@@ -2941,9 +2986,9 @@
       <c r="G59">
         <v>12</v>
       </c>
-      <c r="H59">
-        <f>[1]!FT2M(365)</f>
-        <v>111.25200000000001</v>
+      <c r="H59" t="e">
+        <f ca="1">[1]!FT2M(365)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I59">
         <f>[1]!LB2KG(553000)</f>
@@ -3439,9 +3484,9 @@
       <c r="G80">
         <v>1</v>
       </c>
-      <c r="H80">
-        <f>[1]!FT2M(346)</f>
-        <v>105.46080000000001</v>
+      <c r="H80" t="e">
+        <f ca="1">[1]!FT2M(346)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I80">
         <f>[1]!LB2KG(585000)</f>
@@ -5744,7 +5789,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B982B88-E467-4BB2-8BCC-6CD25ED1A980}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:O3"/>
   <sheetViews>
@@ -5790,9 +5835,9 @@
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2">
-        <f>[1]!FT2M(59.1)</f>
-        <v>18.013680000000001</v>
+      <c r="C2" t="e">
+        <f ca="1">[1]!FT2M(59.1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D2">
         <v>6.61416</v>
@@ -5819,17 +5864,17 @@
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3">
-        <f>[1]!FT2M(80.2)</f>
-        <v>24.444960000000002</v>
-      </c>
-      <c r="D3">
-        <f>[1]!FT2M(22.8)</f>
-        <v>6.9494400000000009</v>
-      </c>
-      <c r="E3">
-        <f>[1]!FT2M(40.7)</f>
-        <v>12.405360000000002</v>
+      <c r="C3" t="e">
+        <f ca="1">[1]!FT2M(80.2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D3" t="e">
+        <f ca="1">[1]!FT2M(22.8)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E3" t="e">
+        <f ca="1">[1]!FT2M(40.7)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
@@ -5853,12 +5898,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEF43747-4999-4BFF-A8DE-9192B0B803DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:X11"/>
+  <dimension ref="A1:X14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5967,11 +6012,11 @@
         <v>23</v>
       </c>
       <c r="D2">
-        <f>[1]!IN2M(101.61)</f>
+        <f>[2]!IN2M(101.61)</f>
         <v>2.5808939999999998</v>
       </c>
       <c r="E2">
-        <f>[1]!IN2M(45.49)</f>
+        <f>[2]!IN2M(45.49)</f>
         <v>1.155446</v>
       </c>
       <c r="F2">
@@ -6007,22 +6052,23 @@
         <v>8</v>
       </c>
       <c r="Q2">
-        <f>[1]!LB2KG(2003)</f>
+        <f>[2]!LB2KG(2003)</f>
         <v>908.54477599999996</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="4">
         <v>0</v>
       </c>
-      <c r="V2">
+      <c r="U2" s="4"/>
+      <c r="V2" s="4">
         <v>1961</v>
       </c>
-      <c r="W2" t="s">
+      <c r="W2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="X2" t="s">
+      <c r="X2" s="4" t="s">
         <v>103</v>
       </c>
     </row>
@@ -6037,11 +6083,11 @@
         <v>23</v>
       </c>
       <c r="D3">
-        <f>[1]!IN2M(101.61)</f>
+        <f>[2]!IN2M(101.61)</f>
         <v>2.5808939999999998</v>
       </c>
       <c r="E3">
-        <f>[1]!IN2M(45.49)</f>
+        <f>[2]!IN2M(45.49)</f>
         <v>1.155446</v>
       </c>
       <c r="F3">
@@ -6077,22 +6123,23 @@
         <v>8</v>
       </c>
       <c r="Q3">
-        <f>[1]!LB2KG(2003+140)</f>
+        <f>[2]!LB2KG(2003+140)</f>
         <v>972.04765599999996</v>
       </c>
       <c r="S3">
         <v>8</v>
       </c>
-      <c r="T3" t="s">
+      <c r="T3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="V3">
+      <c r="U3" s="4"/>
+      <c r="V3" s="4">
         <v>1961</v>
       </c>
-      <c r="W3" t="s">
+      <c r="W3" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="X3" t="s">
+      <c r="X3" s="4" t="s">
         <v>103</v>
       </c>
     </row>
@@ -6107,11 +6154,11 @@
         <v>29</v>
       </c>
       <c r="D4">
-        <f>[1]!IN2M(101.61)</f>
+        <f>[2]!IN2M(101.61)</f>
         <v>2.5808939999999998</v>
       </c>
       <c r="E4">
-        <f>[1]!IN2M(45.49)</f>
+        <f>[2]!IN2M(45.49)</f>
         <v>1.155446</v>
       </c>
       <c r="F4">
@@ -6147,22 +6194,23 @@
         <v>8</v>
       </c>
       <c r="Q4">
-        <f>[1]!LB2KG(2003)</f>
+        <f>[2]!LB2KG(2003)</f>
         <v>908.54477599999996</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="4">
         <v>0</v>
       </c>
-      <c r="V4">
+      <c r="U4" s="4"/>
+      <c r="V4" s="4">
         <v>1964</v>
       </c>
-      <c r="W4" t="s">
+      <c r="W4" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="X4" t="s">
+      <c r="X4" s="4" t="s">
         <v>103</v>
       </c>
     </row>
@@ -6177,11 +6225,11 @@
         <v>29</v>
       </c>
       <c r="D5">
-        <f>[1]!IN2M(101.61)</f>
+        <f>[2]!IN2M(101.61)</f>
         <v>2.5808939999999998</v>
       </c>
       <c r="E5">
-        <f>[1]!IN2M(45.49)</f>
+        <f>[2]!IN2M(45.49)</f>
         <v>1.155446</v>
       </c>
       <c r="F5">
@@ -6217,22 +6265,23 @@
         <v>8</v>
       </c>
       <c r="Q5">
-        <f>[1]!LB2KG(2003+140)</f>
+        <f>[2]!LB2KG(2003+140)</f>
         <v>972.04765599999996</v>
       </c>
       <c r="S5">
         <v>8</v>
       </c>
-      <c r="T5" t="s">
+      <c r="T5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="V5">
+      <c r="U5" s="4"/>
+      <c r="V5" s="4">
         <v>1964</v>
       </c>
-      <c r="W5" t="s">
+      <c r="W5" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="X5" t="s">
+      <c r="X5" s="4" t="s">
         <v>103</v>
       </c>
     </row>
@@ -6247,11 +6296,11 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <f>[1]!IN2M(101.61)</f>
+        <f>[2]!IN2M(101.61)</f>
         <v>2.5808939999999998</v>
       </c>
       <c r="E6">
-        <f>[1]!IN2M(45.49)</f>
+        <f>[2]!IN2M(45.49)</f>
         <v>1.155446</v>
       </c>
       <c r="F6">
@@ -6286,22 +6335,23 @@
         <v>8</v>
       </c>
       <c r="Q6">
-        <f>[1]!LB2KG(2003)</f>
+        <f>[2]!LB2KG(2003)</f>
         <v>908.54477599999996</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="4">
         <v>0</v>
       </c>
-      <c r="V6">
+      <c r="U6" s="4"/>
+      <c r="V6" s="4">
         <v>1966</v>
       </c>
-      <c r="W6" t="s">
+      <c r="W6" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="X6" t="s">
+      <c r="X6" s="4" t="s">
         <v>103</v>
       </c>
     </row>
@@ -6316,11 +6366,11 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <f>[1]!IN2M(101.61)</f>
+        <f>[2]!IN2M(101.61)</f>
         <v>2.5808939999999998</v>
       </c>
       <c r="E7">
-        <f>[1]!IN2M(45.49)</f>
+        <f>[2]!IN2M(45.49)</f>
         <v>1.155446</v>
       </c>
       <c r="F7">
@@ -6355,22 +6405,23 @@
         <v>8</v>
       </c>
       <c r="Q7">
-        <f>[1]!LB2KG(2003+140)</f>
+        <f>[2]!LB2KG(2003+140)</f>
         <v>972.04765599999996</v>
       </c>
       <c r="S7">
         <v>8</v>
       </c>
-      <c r="T7" t="s">
+      <c r="T7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="V7">
+      <c r="U7" s="4"/>
+      <c r="V7" s="4">
         <v>1966</v>
       </c>
-      <c r="W7" t="s">
+      <c r="W7" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="X7" t="s">
+      <c r="X7" s="4" t="s">
         <v>103</v>
       </c>
     </row>
@@ -6385,11 +6436,11 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <f>[1]!IN2M(101.61)</f>
+        <f>[2]!IN2M(101.61)</f>
         <v>2.5808939999999998</v>
       </c>
       <c r="E8">
-        <f>[1]!IN2M(45.49)</f>
+        <f>[2]!IN2M(45.49)</f>
         <v>1.155446</v>
       </c>
       <c r="F8">
@@ -6410,7 +6461,7 @@
         <v>292</v>
       </c>
       <c r="K8">
-        <f>[1]!LB2KG(6346.72/8)</f>
+        <f>[2]!LB2KG(6346.72/8)</f>
         <v>359.85267728000002</v>
       </c>
       <c r="L8" t="s">
@@ -6429,7 +6480,7 @@
         <v>8</v>
       </c>
       <c r="Q8">
-        <f>[1]!LB2KG(2003)</f>
+        <f>[2]!LB2KG(2003)</f>
         <v>908.54477599999996</v>
       </c>
       <c r="R8">
@@ -6438,19 +6489,19 @@
       <c r="S8">
         <v>0</v>
       </c>
-      <c r="T8">
+      <c r="T8" s="4">
         <v>0</v>
       </c>
-      <c r="U8" t="s">
+      <c r="U8" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="V8">
+      <c r="V8" s="4">
         <v>1973</v>
       </c>
-      <c r="W8" t="s">
+      <c r="W8" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="X8" t="s">
+      <c r="X8" s="4" t="s">
         <v>103</v>
       </c>
     </row>
@@ -6465,11 +6516,11 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <f>[1]!IN2M(101.61)</f>
+        <f>[2]!IN2M(101.61)</f>
         <v>2.5808939999999998</v>
       </c>
       <c r="E9">
-        <f>[1]!IN2M(45.49)</f>
+        <f>[2]!IN2M(45.49)</f>
         <v>1.155446</v>
       </c>
       <c r="F9">
@@ -6490,7 +6541,7 @@
         <v>292</v>
       </c>
       <c r="K9">
-        <f>[1]!LB2KG(6346.72/8)</f>
+        <f>[2]!LB2KG(6346.72/8)</f>
         <v>359.85267728000002</v>
       </c>
       <c r="L9" t="s">
@@ -6509,7 +6560,7 @@
         <v>8</v>
       </c>
       <c r="Q9">
-        <f>[1]!LB2KG(2003+140)</f>
+        <f>[2]!LB2KG(2003+140)</f>
         <v>972.04765599999996</v>
       </c>
       <c r="R9">
@@ -6518,19 +6569,19 @@
       <c r="S9">
         <v>8</v>
       </c>
-      <c r="T9" t="s">
+      <c r="T9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="U9" t="s">
+      <c r="U9" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="V9">
+      <c r="V9" s="4">
         <v>1973</v>
       </c>
-      <c r="W9" t="s">
+      <c r="W9" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="X9" t="s">
+      <c r="X9" s="4" t="s">
         <v>103</v>
       </c>
     </row>
@@ -6545,11 +6596,11 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <f>[1]!IN2M(133)</f>
+        <f>[2]!IN2M(133)</f>
         <v>3.3781999999999996</v>
       </c>
       <c r="E10">
-        <f>[1]!IN2M(80.75)</f>
+        <f>[2]!IN2M(80.75)</f>
         <v>2.05105</v>
       </c>
       <c r="F10">
@@ -6561,7 +6612,7 @@
         <v>1000.8495</v>
       </c>
       <c r="H10">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="I10">
         <v>293.81</v>
@@ -6579,10 +6630,10 @@
         <v>5.5</v>
       </c>
       <c r="P10">
-        <v>27</v>
+        <v>27.5</v>
       </c>
       <c r="Q10">
-        <f>[1]!LB2KG(3665)</f>
+        <f>[2]!LB2KG(3665)</f>
         <v>1662.4146800000001</v>
       </c>
       <c r="R10">
@@ -6591,13 +6642,15 @@
       <c r="S10">
         <v>7</v>
       </c>
-      <c r="T10" t="s">
+      <c r="T10" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="U10" t="s">
+      <c r="U10" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="X10" t="s">
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4" t="s">
         <v>103</v>
       </c>
     </row>
@@ -6612,11 +6665,11 @@
         <v>7</v>
       </c>
       <c r="D11">
-        <f>[1]!IN2M(133)</f>
+        <f>[2]!IN2M(133)</f>
         <v>3.3781999999999996</v>
       </c>
       <c r="E11">
-        <f>[1]!IN2M(80.75)</f>
+        <f>[2]!IN2M(80.75)</f>
         <v>2.05105</v>
       </c>
       <c r="F11">
@@ -6628,7 +6681,7 @@
         <v>867.40290000000005</v>
       </c>
       <c r="H11">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="I11">
         <v>293.81</v>
@@ -6646,10 +6699,10 @@
         <v>4.8</v>
       </c>
       <c r="P11">
-        <v>27</v>
+        <v>27.5</v>
       </c>
       <c r="Q11">
-        <f>[1]!LB2KG(3665)</f>
+        <f>[2]!LB2KG(3665)</f>
         <v>1662.4146800000001</v>
       </c>
       <c r="R11">
@@ -6658,15 +6711,184 @@
       <c r="S11">
         <v>7</v>
       </c>
-      <c r="T11" t="s">
+      <c r="T11" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="U11" t="s">
+      <c r="U11" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="X11" t="s">
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4" t="s">
         <v>103</v>
       </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>295</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>3.3782000000000001</v>
+      </c>
+      <c r="E12">
+        <v>2.05105</v>
+      </c>
+      <c r="G12">
+        <f>[1]!LBF2KN(200000)</f>
+        <v>889.64400000000001</v>
+      </c>
+      <c r="H12">
+        <v>500</v>
+      </c>
+      <c r="J12">
+        <v>418</v>
+      </c>
+      <c r="L12">
+        <v>0.77</v>
+      </c>
+      <c r="M12" t="s">
+        <v>68</v>
+      </c>
+      <c r="N12" t="s">
+        <v>52</v>
+      </c>
+      <c r="O12">
+        <v>5</v>
+      </c>
+      <c r="P12">
+        <v>27.5</v>
+      </c>
+      <c r="Q12">
+        <f>[1]!LB2KG(3609)</f>
+        <v>1637.013528</v>
+      </c>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>297</v>
+      </c>
+      <c r="B13" t="s">
+        <v>296</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>3.3782000000000001</v>
+      </c>
+      <c r="E13">
+        <v>2.05105</v>
+      </c>
+      <c r="G13">
+        <f>[1]!LBF2KN(225000)</f>
+        <v>1000.8495</v>
+      </c>
+      <c r="H13">
+        <v>500</v>
+      </c>
+      <c r="J13">
+        <v>419</v>
+      </c>
+      <c r="L13">
+        <v>0.77</v>
+      </c>
+      <c r="M13" t="s">
+        <v>68</v>
+      </c>
+      <c r="N13" t="s">
+        <v>52</v>
+      </c>
+      <c r="O13">
+        <v>5.5</v>
+      </c>
+      <c r="P13">
+        <v>27.5</v>
+      </c>
+      <c r="Q13">
+        <f>[1]!LB2KG(3609)</f>
+        <v>1637.013528</v>
+      </c>
+      <c r="S13">
+        <v>7</v>
+      </c>
+      <c r="T13" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>295</v>
+      </c>
+      <c r="B14" t="s">
+        <v>296</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>3.3782000000000001</v>
+      </c>
+      <c r="E14">
+        <v>2.05105</v>
+      </c>
+      <c r="G14">
+        <f>[1]!LBF2KN(230000)</f>
+        <v>1023.0906</v>
+      </c>
+      <c r="H14">
+        <v>500</v>
+      </c>
+      <c r="J14">
+        <v>421</v>
+      </c>
+      <c r="L14">
+        <v>0.77</v>
+      </c>
+      <c r="M14" t="s">
+        <v>68</v>
+      </c>
+      <c r="N14" t="s">
+        <v>52</v>
+      </c>
+      <c r="O14">
+        <v>5.5</v>
+      </c>
+      <c r="P14">
+        <v>27.5</v>
+      </c>
+      <c r="Q14">
+        <f>[1]!LB2KG(3621)</f>
+        <v>1642.4566319999999</v>
+      </c>
+      <c r="S14">
+        <v>7</v>
+      </c>
+      <c r="T14" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="U14" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6678,7 +6900,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C6FCA2-FBFE-437C-BBEF-A2487BF7FDD1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:O4"/>
   <sheetViews>
@@ -6727,24 +6949,24 @@
       <c r="C2">
         <v>2.016</v>
       </c>
-      <c r="D2">
-        <f>[1]!F2C(-435)</f>
-        <v>-259.44444444444446</v>
-      </c>
-      <c r="E2">
-        <f>[1]!F2C(-422.9)</f>
-        <v>-252.7222222222222</v>
-      </c>
-      <c r="F2">
-        <f>[1]!F2C(399.96)</f>
-        <v>204.42222222222222</v>
+      <c r="D2" t="e">
+        <f ca="1">[1]!F2C(-435)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E2" t="e">
+        <f ca="1">[1]!F2C(-422.9)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F2" t="e">
+        <f ca="1">[1]!F2C(399.96)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G2">
         <v>-188.16</v>
       </c>
-      <c r="H2">
-        <f>[1]!LBG2KGL(0.594)</f>
-        <v>7.1176643999999997E-2</v>
+      <c r="H2" t="e">
+        <f ca="1">[1]!LBG2KGL(0.594)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I2" t="s">
         <v>97</v>
@@ -6766,24 +6988,24 @@
       <c r="C3">
         <v>92.016000000000005</v>
       </c>
-      <c r="D3">
-        <f>[1]!F2C(11.84)</f>
-        <v>-11.2</v>
-      </c>
-      <c r="E3">
-        <f>[1]!F2C(70.07)</f>
-        <v>21.149999999999995</v>
-      </c>
-      <c r="F3">
-        <f>[1]!F2C(316.8)</f>
-        <v>158.22222222222223</v>
+      <c r="D3" t="e">
+        <f ca="1">[1]!F2C(11.84)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E3" t="e">
+        <f ca="1">[1]!F2C(70.07)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F3" t="e">
+        <f ca="1">[1]!F2C(316.8)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G3">
         <v>1469</v>
       </c>
-      <c r="H3">
-        <f>[1]!LBG2KGL(11.94)</f>
-        <v>1.43072244</v>
+      <c r="H3" t="e">
+        <f ca="1">[1]!LBG2KGL(11.94)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I3" t="s">
         <v>92</v>
@@ -6811,24 +7033,24 @@
       <c r="C4">
         <v>46.075000000000003</v>
       </c>
-      <c r="D4">
-        <f>[1]!F2C(-62.5)</f>
-        <v>-52.5</v>
-      </c>
-      <c r="E4">
-        <f>[1]!F2C(192.5)</f>
-        <v>89.166666666666671</v>
-      </c>
-      <c r="F4">
-        <f>[1]!F2C(593.6)</f>
-        <v>312</v>
+      <c r="D4" t="e">
+        <f ca="1">[1]!F2C(-62.5)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E4" t="e">
+        <f ca="1">[1]!F2C(192.5)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F4" t="e">
+        <f ca="1">[1]!F2C(593.6)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G4">
         <v>1195.0999999999999</v>
       </c>
-      <c r="H4">
-        <f>[1]!LBG2KGL(7.29)</f>
-        <v>0.87353154</v>
+      <c r="H4" t="e">
+        <f ca="1">[1]!LBG2KGL(7.29)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I4" t="s">
         <v>85</v>
